--- a/Result/580_CIDANAU_190219N.xlsx
+++ b/Result/580_CIDANAU_190219N.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$Q$581</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -2057,13 +2057,13 @@
                   <c:v>7.4694332569323896E-2</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>7.0118785886874799E-2</c:v>
+                  <c:v>7.1049938205100194E-2</c:v>
                 </c:pt>
                 <c:pt idx="578">
                   <c:v>7.10219920983306E-2</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>7.1049938205100194E-2</c:v>
+                  <c:v>7.0118785886874799E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3806,13 +3806,13 @@
                   <c:v>7.2499999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>9.8061999999999996E-2</c:v>
+                  <c:v>2.8530000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="578">
                   <c:v>0.108233</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>2.8530000000000001E-3</c:v>
+                  <c:v>9.8061999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,16 +4564,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>788670</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4877,7 +4877,7 @@
   <dimension ref="A1:O581"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5024,7 +5024,7 @@
         <v>0.79342092648273099</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="0">(L3-H3)</f>
+        <f>(L3-H3)</f>
         <v>0.71655392648273097</v>
       </c>
       <c r="N3">
@@ -5073,7 +5073,7 @@
         <v>0.81945001270615603</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f>(L4-H4)</f>
         <v>0.71244301270615606</v>
       </c>
       <c r="N4">
@@ -5122,7 +5122,7 @@
         <v>0.80117513815547503</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f>(L5-H5)</f>
         <v>0.70789913815547501</v>
       </c>
       <c r="N5">
@@ -5171,7 +5171,7 @@
         <v>0.85929706313412402</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f>(L6-H6)</f>
         <v>0.70451106313412404</v>
       </c>
       <c r="N6">
@@ -5220,7 +5220,7 @@
         <v>0.73446998613529901</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f>(L7-H7)</f>
         <v>0.69793598613529906</v>
       </c>
       <c r="N7">
@@ -5269,7 +5269,7 @@
         <v>0.78936092012574399</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f>(L8-H8)</f>
         <v>0.69661292012574405</v>
       </c>
       <c r="N8">
@@ -5318,7 +5318,7 @@
         <v>0.78692049378169904</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f>(L9-H9)</f>
         <v>0.69427849378169904</v>
       </c>
       <c r="N9">
@@ -5367,7 +5367,7 @@
         <v>0.81810919314001596</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f>(L10-H10)</f>
         <v>0.69110519314001595</v>
       </c>
       <c r="N10">
@@ -5416,7 +5416,7 @@
         <v>0.79315984911607595</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f>(L11-H11)</f>
         <v>0.68537884911607594</v>
       </c>
       <c r="N11">
@@ -5465,7 +5465,7 @@
         <v>0.77453508540756399</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f>(L12-H12)</f>
         <v>0.68503008540756394</v>
       </c>
       <c r="N12">
@@ -5514,7 +5514,7 @@
         <v>0.77264674923999999</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f>(L13-H13)</f>
         <v>0.68214174923999993</v>
       </c>
       <c r="N13">
@@ -5563,7 +5563,7 @@
         <v>0.78399003985543603</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f>(L14-H14)</f>
         <v>0.67723203985543601</v>
       </c>
       <c r="N14">
@@ -5612,7 +5612,7 @@
         <v>0.74421735203814399</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f>(L15-H15)</f>
         <v>0.673073352038144</v>
       </c>
       <c r="N15">
@@ -5661,7 +5661,7 @@
         <v>0.75685560663366402</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f>(L16-H16)</f>
         <v>0.67147260663366404</v>
       </c>
       <c r="N16">
@@ -5710,7 +5710,7 @@
         <v>0.76430237094393105</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
+        <f>(L17-H17)</f>
         <v>0.66889137094393103</v>
       </c>
       <c r="N17">
@@ -5759,7 +5759,7 @@
         <v>0.76223317979241101</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f>(L18-H18)</f>
         <v>0.66774717979241105</v>
       </c>
       <c r="N18">
@@ -5808,7 +5808,7 @@
         <v>0.72762381834227496</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
+        <f>(L19-H19)</f>
         <v>0.66697081834227501</v>
       </c>
       <c r="N19">
@@ -5857,7 +5857,7 @@
         <v>0.76665525116590005</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
+        <f>(L20-H20)</f>
         <v>0.66685125116590005</v>
       </c>
       <c r="N20">
@@ -5906,7 +5906,7 @@
         <v>0.79891442672670399</v>
       </c>
       <c r="M21">
-        <f t="shared" si="0"/>
+        <f>(L21-H21)</f>
         <v>0.66505742672670398</v>
       </c>
       <c r="N21">
@@ -5955,7 +5955,7 @@
         <v>0.74690880588160002</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
+        <f>(L22-H22)</f>
         <v>0.66456480588160005</v>
       </c>
       <c r="N22">
@@ -6004,7 +6004,7 @@
         <v>0.79260055615173097</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
+        <f>(L23-H23)</f>
         <v>0.66434155615173096</v>
       </c>
       <c r="N23">
@@ -6053,7 +6053,7 @@
         <v>0.79196695213572399</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f>(L24-H24)</f>
         <v>0.66363195213572401</v>
       </c>
       <c r="N24">
@@ -6102,7 +6102,7 @@
         <v>0.7658014153264</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f>(L25-H25)</f>
         <v>0.66243741532639999</v>
       </c>
       <c r="N25">
@@ -6151,7 +6151,7 @@
         <v>0.76524060803364402</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
+        <f>(L26-H26)</f>
         <v>0.65874560803364401</v>
       </c>
       <c r="N26">
@@ -6200,7 +6200,7 @@
         <v>0.76278060660505598</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f>(L27-H27)</f>
         <v>0.65780260660505596</v>
       </c>
       <c r="N27">
@@ -6249,7 +6249,7 @@
         <v>0.79468968624227498</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
+        <f>(L28-H28)</f>
         <v>0.65576968624227505</v>
       </c>
       <c r="N28">
@@ -6298,7 +6298,7 @@
         <v>0.75962068001809602</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
+        <f>(L29-H29)</f>
         <v>0.65330768001809603</v>
       </c>
       <c r="N29">
@@ -6347,7 +6347,7 @@
         <v>0.76023994280493101</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
+        <f>(L30-H30)</f>
         <v>0.65157894280493101</v>
       </c>
       <c r="N30">
@@ -6396,7 +6396,7 @@
         <v>0.72076589726927498</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f>(L31-H31)</f>
         <v>0.65133989726927499</v>
       </c>
       <c r="N31">
@@ -6445,7 +6445,7 @@
         <v>0.71833879580233895</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
+        <f>(L32-H32)</f>
         <v>0.65057179580233893</v>
       </c>
       <c r="N32">
@@ -6494,7 +6494,7 @@
         <v>0.71909236163517098</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
+        <f>(L33-H33)</f>
         <v>0.64961536163517097</v>
       </c>
       <c r="N33">
@@ -6543,7 +6543,7 @@
         <v>0.77362738708959999</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
+        <f>(L34-H34)</f>
         <v>0.64956138708959998</v>
       </c>
       <c r="N34">
@@ -6592,7 +6592,7 @@
         <v>0.71288852094227495</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f>(L35-H35)</f>
         <v>0.64555452094227495</v>
       </c>
       <c r="N35">
@@ -6641,7 +6641,7 @@
         <v>0.72240616144710401</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f>(L36-H36)</f>
         <v>0.64197416144710395</v>
       </c>
       <c r="N36">
@@ -6690,7 +6690,7 @@
         <v>0.71224399913439995</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
+        <f>(L37-H37)</f>
         <v>0.6409699991344</v>
       </c>
       <c r="N37">
@@ -6739,7 +6739,7 @@
         <v>0.75616520542941101</v>
       </c>
       <c r="M38">
-        <f t="shared" si="0"/>
+        <f>(L38-H38)</f>
         <v>0.63985120542941099</v>
       </c>
       <c r="N38">
@@ -6788,7 +6788,7 @@
         <v>0.73960393125193902</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
+        <f>(L39-H39)</f>
         <v>0.63921893125193896</v>
       </c>
       <c r="N39">
@@ -6837,7 +6837,7 @@
         <v>0.71797394455321595</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f>(L40-H40)</f>
         <v>0.63878994455321592</v>
       </c>
       <c r="N40">
@@ -6886,7 +6886,7 @@
         <v>0.73642572031847497</v>
       </c>
       <c r="M41">
-        <f t="shared" si="0"/>
+        <f>(L41-H41)</f>
         <v>0.63858672031847497</v>
       </c>
       <c r="N41">
@@ -6935,7 +6935,7 @@
         <v>0.73862337663445898</v>
       </c>
       <c r="M42">
-        <f t="shared" si="0"/>
+        <f>(L42-H42)</f>
         <v>0.63850437663445903</v>
       </c>
       <c r="N42">
@@ -6984,7 +6984,7 @@
         <v>0.70578157262157104</v>
       </c>
       <c r="M43">
-        <f t="shared" si="0"/>
+        <f>(L43-H43)</f>
         <v>0.6372915726215711</v>
       </c>
       <c r="N43">
@@ -7033,7 +7033,7 @@
         <v>0.70899117586759597</v>
       </c>
       <c r="M44">
-        <f t="shared" si="0"/>
+        <f>(L44-H44)</f>
         <v>0.63723917586759593</v>
       </c>
       <c r="N44">
@@ -7082,7 +7082,7 @@
         <v>0.76882879009177596</v>
       </c>
       <c r="M45">
-        <f t="shared" si="0"/>
+        <f>(L45-H45)</f>
         <v>0.63717479009177591</v>
       </c>
       <c r="N45">
@@ -7131,7 +7131,7 @@
         <v>0.7295813402611</v>
       </c>
       <c r="M46">
-        <f t="shared" si="0"/>
+        <f>(L46-H46)</f>
         <v>0.63696834026109994</v>
       </c>
       <c r="N46">
@@ -7180,7 +7180,7 @@
         <v>0.74676448505809601</v>
       </c>
       <c r="M47">
-        <f t="shared" si="0"/>
+        <f>(L47-H47)</f>
         <v>0.635524485058096</v>
       </c>
       <c r="N47">
@@ -7229,7 +7229,7 @@
         <v>0.73232675384485901</v>
       </c>
       <c r="M48">
-        <f t="shared" si="0"/>
+        <f>(L48-H48)</f>
         <v>0.633290753844859</v>
       </c>
       <c r="N48">
@@ -7278,7 +7278,7 @@
         <v>0.72940326362027497</v>
       </c>
       <c r="M49">
-        <f t="shared" si="0"/>
+        <f>(L49-H49)</f>
         <v>0.63321126362027491</v>
       </c>
       <c r="N49">
@@ -7327,7 +7327,7 @@
         <v>0.69542635243727502</v>
       </c>
       <c r="M50">
-        <f t="shared" si="0"/>
+        <f>(L50-H50)</f>
         <v>0.63268035243727505</v>
       </c>
       <c r="N50">
@@ -7376,7 +7376,7 @@
         <v>0.70830188981829101</v>
       </c>
       <c r="M51">
-        <f t="shared" si="0"/>
+        <f>(L51-H51)</f>
         <v>0.63221488981829099</v>
       </c>
       <c r="N51">
@@ -7425,7 +7425,7 @@
         <v>0.735256704636571</v>
       </c>
       <c r="M52">
-        <f t="shared" si="0"/>
+        <f>(L52-H52)</f>
         <v>0.63150270463657099</v>
       </c>
       <c r="N52">
@@ -7474,7 +7474,7 @@
         <v>0.783162686517475</v>
       </c>
       <c r="M53">
-        <f t="shared" si="0"/>
+        <f>(L53-H53)</f>
         <v>0.62863768651747498</v>
       </c>
       <c r="N53">
@@ -7523,7 +7523,7 @@
         <v>0.80188779904327601</v>
       </c>
       <c r="M54">
-        <f t="shared" si="0"/>
+        <f>(L54-H54)</f>
         <v>0.62863479904327602</v>
       </c>
       <c r="N54">
@@ -7572,7 +7572,7 @@
         <v>0.69879523338084404</v>
       </c>
       <c r="M55">
-        <f t="shared" si="0"/>
+        <f>(L55-H55)</f>
         <v>0.62798223338084402</v>
       </c>
       <c r="N55">
@@ -7621,7 +7621,7 @@
         <v>0.69181287087031595</v>
       </c>
       <c r="M56">
-        <f t="shared" si="0"/>
+        <f>(L56-H56)</f>
         <v>0.62637887087031596</v>
       </c>
       <c r="N56">
@@ -7670,7 +7670,7 @@
         <v>0.70070943984253897</v>
       </c>
       <c r="M57">
-        <f t="shared" si="0"/>
+        <f>(L57-H57)</f>
         <v>0.62615843984253894</v>
       </c>
       <c r="N57">
@@ -7719,7 +7719,7 @@
         <v>0.72792022574589998</v>
       </c>
       <c r="M58">
-        <f t="shared" si="0"/>
+        <f>(L58-H58)</f>
         <v>0.62609222574589996</v>
       </c>
       <c r="N58">
@@ -7768,7 +7768,7 @@
         <v>0.71727983368285897</v>
       </c>
       <c r="M59">
-        <f t="shared" si="0"/>
+        <f>(L59-H59)</f>
         <v>0.62556583368285901</v>
       </c>
       <c r="N59">
@@ -7817,7 +7817,7 @@
         <v>0.702475402051291</v>
       </c>
       <c r="M60">
-        <f t="shared" si="0"/>
+        <f>(L60-H60)</f>
         <v>0.62500240205129098</v>
       </c>
       <c r="N60">
@@ -7866,7 +7866,7 @@
         <v>0.70024512289621899</v>
       </c>
       <c r="M61">
-        <f t="shared" si="0"/>
+        <f>(L61-H61)</f>
         <v>0.62361812289621898</v>
       </c>
       <c r="N61">
@@ -7915,7 +7915,7 @@
         <v>0.72315026983605102</v>
       </c>
       <c r="M62">
-        <f t="shared" si="0"/>
+        <f>(L62-H62)</f>
         <v>0.62324126983605099</v>
       </c>
       <c r="N62">
@@ -7964,7 +7964,7 @@
         <v>0.73320744174827501</v>
       </c>
       <c r="M63">
-        <f t="shared" si="0"/>
+        <f>(L63-H63)</f>
         <v>0.62297144174827501</v>
       </c>
       <c r="N63">
@@ -8013,7 +8013,7 @@
         <v>0.70763632233972396</v>
       </c>
       <c r="M64">
-        <f t="shared" si="0"/>
+        <f>(L64-H64)</f>
         <v>0.62292532233972397</v>
       </c>
       <c r="N64">
@@ -8062,7 +8062,7 @@
         <v>0.74269377330793895</v>
       </c>
       <c r="M65">
-        <f t="shared" si="0"/>
+        <f>(L65-H65)</f>
         <v>0.62274277330793892</v>
       </c>
       <c r="N65">
@@ -8111,7 +8111,7 @@
         <v>0.75414444782559997</v>
       </c>
       <c r="M66">
-        <f t="shared" si="0"/>
+        <f>(L66-H66)</f>
         <v>0.62242144782559994</v>
       </c>
       <c r="N66">
@@ -8160,7 +8160,7 @@
         <v>0.68807192140449103</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="1">(L67-H67)</f>
+        <f>(L67-H67)</f>
         <v>0.62156892140449105</v>
       </c>
       <c r="N67">
@@ -8209,7 +8209,7 @@
         <v>0.72733933000849904</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
+        <f>(L68-H68)</f>
         <v>0.62063333000849907</v>
       </c>
       <c r="N68">
@@ -8258,7 +8258,7 @@
         <v>0.78831982556953595</v>
       </c>
       <c r="M69">
-        <f t="shared" si="1"/>
+        <f>(L69-H69)</f>
         <v>0.62000582556953598</v>
       </c>
       <c r="N69">
@@ -8307,7 +8307,7 @@
         <v>0.71395562076324404</v>
       </c>
       <c r="M70">
-        <f t="shared" si="1"/>
+        <f>(L70-H70)</f>
         <v>0.619057620763244</v>
       </c>
       <c r="N70">
@@ -8356,7 +8356,7 @@
         <v>0.68422766789815603</v>
       </c>
       <c r="M71">
-        <f t="shared" si="1"/>
+        <f>(L71-H71)</f>
         <v>0.61879466789815607</v>
       </c>
       <c r="N71">
@@ -8405,7 +8405,7 @@
         <v>0.68724468300047503</v>
       </c>
       <c r="M72">
-        <f t="shared" si="1"/>
+        <f>(L72-H72)</f>
         <v>0.61819868300047509</v>
       </c>
       <c r="N72">
@@ -8454,7 +8454,7 @@
         <v>0.72989006334054396</v>
       </c>
       <c r="M73">
-        <f t="shared" si="1"/>
+        <f>(L73-H73)</f>
         <v>0.61807906334054397</v>
       </c>
       <c r="N73">
@@ -8503,7 +8503,7 @@
         <v>0.71273615027911597</v>
       </c>
       <c r="M74">
-        <f t="shared" si="1"/>
+        <f>(L74-H74)</f>
         <v>0.61738715027911595</v>
       </c>
       <c r="N74">
@@ -8552,7 +8552,7 @@
         <v>0.69563447452113103</v>
       </c>
       <c r="M75">
-        <f t="shared" si="1"/>
+        <f>(L75-H75)</f>
         <v>0.614979474521131</v>
       </c>
       <c r="N75">
@@ -8601,7 +8601,7 @@
         <v>0.76829119608414398</v>
       </c>
       <c r="M76">
-        <f t="shared" si="1"/>
+        <f>(L76-H76)</f>
         <v>0.61318519608414401</v>
       </c>
       <c r="N76">
@@ -8650,7 +8650,7 @@
         <v>0.71827994188740396</v>
       </c>
       <c r="M77">
-        <f t="shared" si="1"/>
+        <f>(L77-H77)</f>
         <v>0.61295394188740393</v>
       </c>
       <c r="N77">
@@ -8699,7 +8699,7 @@
         <v>0.68233863337149103</v>
       </c>
       <c r="M78">
-        <f t="shared" si="1"/>
+        <f>(L78-H78)</f>
         <v>0.61270363337149103</v>
       </c>
       <c r="N78">
@@ -8748,7 +8748,7 @@
         <v>0.76492372992409596</v>
       </c>
       <c r="M79">
-        <f t="shared" si="1"/>
+        <f>(L79-H79)</f>
         <v>0.61229372992409603</v>
       </c>
       <c r="N79">
@@ -8797,7 +8797,7 @@
         <v>0.71237287766053903</v>
       </c>
       <c r="M80">
-        <f t="shared" si="1"/>
+        <f>(L80-H80)</f>
         <v>0.61173687766053897</v>
       </c>
       <c r="N80">
@@ -8846,7 +8846,7 @@
         <v>0.71608072198845096</v>
       </c>
       <c r="M81">
-        <f t="shared" si="1"/>
+        <f>(L81-H81)</f>
         <v>0.608189721988451</v>
       </c>
       <c r="N81">
@@ -8895,7 +8895,7 @@
         <v>0.70517557348247495</v>
       </c>
       <c r="M82">
-        <f t="shared" si="1"/>
+        <f>(L82-H82)</f>
         <v>0.60527457348247493</v>
       </c>
       <c r="N82">
@@ -8944,7 +8944,7 @@
         <v>0.697347011959219</v>
       </c>
       <c r="M83">
-        <f t="shared" si="1"/>
+        <f>(L83-H83)</f>
         <v>0.60467101195921902</v>
       </c>
       <c r="N83">
@@ -8993,7 +8993,7 @@
         <v>0.70992639459367601</v>
       </c>
       <c r="M84">
-        <f t="shared" si="1"/>
+        <f>(L84-H84)</f>
         <v>0.60460639459367604</v>
       </c>
       <c r="N84">
@@ -9042,7 +9042,7 @@
         <v>0.66604360226277104</v>
       </c>
       <c r="M85">
-        <f t="shared" si="1"/>
+        <f>(L85-H85)</f>
         <v>0.60448460226277101</v>
       </c>
       <c r="N85">
@@ -9091,7 +9091,7 @@
         <v>0.66405877970613103</v>
       </c>
       <c r="M86">
-        <f t="shared" si="1"/>
+        <f>(L86-H86)</f>
         <v>0.60437377970613104</v>
       </c>
       <c r="N86">
@@ -9140,7 +9140,7 @@
         <v>0.680224081253056</v>
       </c>
       <c r="M87">
-        <f t="shared" si="1"/>
+        <f>(L87-H87)</f>
         <v>0.59984908125305603</v>
       </c>
       <c r="N87">
@@ -9189,7 +9189,7 @@
         <v>0.67838682294001895</v>
       </c>
       <c r="M88">
-        <f t="shared" si="1"/>
+        <f>(L88-H88)</f>
         <v>0.5997698229400189</v>
       </c>
       <c r="N88">
@@ -9238,7 +9238,7 @@
         <v>0.76702134094840002</v>
       </c>
       <c r="M89">
-        <f t="shared" si="1"/>
+        <f>(L89-H89)</f>
         <v>0.59888734094840002</v>
       </c>
       <c r="N89">
@@ -9287,7 +9287,7 @@
         <v>0.69682606059678398</v>
       </c>
       <c r="M90">
-        <f t="shared" si="1"/>
+        <f>(L90-H90)</f>
         <v>0.59872506059678399</v>
       </c>
       <c r="N90">
@@ -9336,7 +9336,7 @@
         <v>0.66769261224625898</v>
       </c>
       <c r="M91">
-        <f t="shared" si="1"/>
+        <f>(L91-H91)</f>
         <v>0.59804561224625896</v>
       </c>
       <c r="N91">
@@ -9385,7 +9385,7 @@
         <v>0.71116661182609597</v>
       </c>
       <c r="M92">
-        <f t="shared" si="1"/>
+        <f>(L92-H92)</f>
         <v>0.59784261182609599</v>
       </c>
       <c r="N92">
@@ -9434,7 +9434,7 @@
         <v>0.661593646461616</v>
       </c>
       <c r="M93">
-        <f t="shared" si="1"/>
+        <f>(L93-H93)</f>
         <v>0.59757964646161599</v>
       </c>
       <c r="N93">
@@ -9483,7 +9483,7 @@
         <v>0.66021136501187505</v>
       </c>
       <c r="M94">
-        <f t="shared" si="1"/>
+        <f>(L94-H94)</f>
         <v>0.59647236501187506</v>
       </c>
       <c r="N94">
@@ -9532,7 +9532,7 @@
         <v>0.73106624640047502</v>
       </c>
       <c r="M95">
-        <f t="shared" si="1"/>
+        <f>(L95-H95)</f>
         <v>0.59519524640047505</v>
       </c>
       <c r="N95">
@@ -9581,7 +9581,7 @@
         <v>0.67143954903159997</v>
       </c>
       <c r="M96">
-        <f t="shared" si="1"/>
+        <f>(L96-H96)</f>
         <v>0.59486654903159997</v>
       </c>
       <c r="N96">
@@ -9630,7 +9630,7 @@
         <v>0.69681448635527499</v>
       </c>
       <c r="M97">
-        <f t="shared" si="1"/>
+        <f>(L97-H97)</f>
         <v>0.59395248635527498</v>
       </c>
       <c r="N97">
@@ -9679,7 +9679,7 @@
         <v>0.65798962168209096</v>
       </c>
       <c r="M98">
-        <f t="shared" si="1"/>
+        <f>(L98-H98)</f>
         <v>0.592610621682091</v>
       </c>
       <c r="N98">
@@ -9728,7 +9728,7 @@
         <v>0.65880826218999999</v>
       </c>
       <c r="M99">
-        <f t="shared" si="1"/>
+        <f>(L99-H99)</f>
         <v>0.59137826219</v>
       </c>
       <c r="N99">
@@ -9777,7 +9777,7 @@
         <v>0.65784389606388405</v>
       </c>
       <c r="M100">
-        <f t="shared" si="1"/>
+        <f>(L100-H100)</f>
         <v>0.58875189606388401</v>
       </c>
       <c r="N100">
@@ -9826,7 +9826,7 @@
         <v>0.66871025901973902</v>
       </c>
       <c r="M101">
-        <f t="shared" si="1"/>
+        <f>(L101-H101)</f>
         <v>0.58864825901973905</v>
       </c>
       <c r="N101">
@@ -9875,7 +9875,7 @@
         <v>0.67451599113109895</v>
       </c>
       <c r="M102">
-        <f t="shared" si="1"/>
+        <f>(L102-H102)</f>
         <v>0.58765899113109898</v>
       </c>
       <c r="N102">
@@ -9924,7 +9924,7 @@
         <v>0.67086146419321901</v>
       </c>
       <c r="M103">
-        <f t="shared" si="1"/>
+        <f>(L103-H103)</f>
         <v>0.587473464193219</v>
       </c>
       <c r="N103">
@@ -9973,7 +9973,7 @@
         <v>0.68680830807813098</v>
       </c>
       <c r="M104">
-        <f t="shared" si="1"/>
+        <f>(L104-H104)</f>
         <v>0.58723830807813093</v>
       </c>
       <c r="N104">
@@ -10022,7 +10022,7 @@
         <v>0.67662064838430402</v>
       </c>
       <c r="M105">
-        <f t="shared" si="1"/>
+        <f>(L105-H105)</f>
         <v>0.58382264838430398</v>
       </c>
       <c r="N105">
@@ -10071,7 +10071,7 @@
         <v>0.70334767376071605</v>
       </c>
       <c r="M106">
-        <f t="shared" si="1"/>
+        <f>(L106-H106)</f>
         <v>0.5821716737607161</v>
       </c>
       <c r="N106">
@@ -10120,7 +10120,7 @@
         <v>0.64997923736590002</v>
       </c>
       <c r="M107">
-        <f t="shared" si="1"/>
+        <f>(L107-H107)</f>
         <v>0.58186923736590002</v>
       </c>
       <c r="N107">
@@ -10169,7 +10169,7 @@
         <v>0.67893428744353901</v>
       </c>
       <c r="M108">
-        <f t="shared" si="1"/>
+        <f>(L108-H108)</f>
         <v>0.58026028744353897</v>
       </c>
       <c r="N108">
@@ -10218,7 +10218,7 @@
         <v>0.68297943441573095</v>
       </c>
       <c r="M109">
-        <f t="shared" si="1"/>
+        <f>(L109-H109)</f>
         <v>0.57939343441573099</v>
       </c>
       <c r="N109">
@@ -10267,7 +10267,7 @@
         <v>0.647154693074944</v>
       </c>
       <c r="M110">
-        <f t="shared" si="1"/>
+        <f>(L110-H110)</f>
         <v>0.57874069307494402</v>
       </c>
       <c r="N110">
@@ -10316,7 +10316,7 @@
         <v>0.677794013965339</v>
       </c>
       <c r="M111">
-        <f t="shared" si="1"/>
+        <f>(L111-H111)</f>
         <v>0.57861801396533896</v>
       </c>
       <c r="N111">
@@ -10365,7 +10365,7 @@
         <v>0.67020437183905901</v>
       </c>
       <c r="M112">
-        <f t="shared" si="1"/>
+        <f>(L112-H112)</f>
         <v>0.578357371839059</v>
       </c>
       <c r="N112">
@@ -10414,7 +10414,7 @@
         <v>0.67297111395047504</v>
       </c>
       <c r="M113">
-        <f t="shared" si="1"/>
+        <f>(L113-H113)</f>
         <v>0.57803511395047502</v>
       </c>
       <c r="N113">
@@ -10463,7 +10463,7 @@
         <v>0.64757682455844401</v>
       </c>
       <c r="M114">
-        <f t="shared" si="1"/>
+        <f>(L114-H114)</f>
         <v>0.57773582455844397</v>
       </c>
       <c r="N114">
@@ -10512,7 +10512,7 @@
         <v>0.64813249558854402</v>
       </c>
       <c r="M115">
-        <f t="shared" si="1"/>
+        <f>(L115-H115)</f>
         <v>0.57728649558854406</v>
       </c>
       <c r="N115">
@@ -10561,7 +10561,7 @@
         <v>0.70405756424989896</v>
       </c>
       <c r="M116">
-        <f t="shared" si="1"/>
+        <f>(L116-H116)</f>
         <v>0.57722256424989893</v>
       </c>
       <c r="N116">
@@ -10610,7 +10610,7 @@
         <v>0.64593360252756404</v>
       </c>
       <c r="M117">
-        <f t="shared" si="1"/>
+        <f>(L117-H117)</f>
         <v>0.57702760252756402</v>
       </c>
       <c r="N117">
@@ -10659,7 +10659,7 @@
         <v>0.64787685376633897</v>
       </c>
       <c r="M118">
-        <f t="shared" si="1"/>
+        <f>(L118-H118)</f>
         <v>0.57695185376633895</v>
       </c>
       <c r="N118">
@@ -10708,7 +10708,7 @@
         <v>0.63859008934039596</v>
       </c>
       <c r="M119">
-        <f t="shared" si="1"/>
+        <f>(L119-H119)</f>
         <v>0.57547208934039595</v>
       </c>
       <c r="N119">
@@ -10757,7 +10757,7 @@
         <v>0.62298919064997105</v>
       </c>
       <c r="M120">
-        <f t="shared" si="1"/>
+        <f>(L120-H120)</f>
         <v>0.57487619064997109</v>
       </c>
       <c r="N120">
@@ -10806,7 +10806,7 @@
         <v>0.63776358478557105</v>
       </c>
       <c r="M121">
-        <f t="shared" si="1"/>
+        <f>(L121-H121)</f>
         <v>0.573663584785571</v>
       </c>
       <c r="N121">
@@ -10855,7 +10855,7 @@
         <v>0.71335746691547497</v>
       </c>
       <c r="M122">
-        <f t="shared" si="1"/>
+        <f>(L122-H122)</f>
         <v>0.57328046691547496</v>
       </c>
       <c r="N122">
@@ -10904,7 +10904,7 @@
         <v>0.64504634803572403</v>
       </c>
       <c r="M123">
-        <f t="shared" si="1"/>
+        <f>(L123-H123)</f>
         <v>0.57324234803572405</v>
       </c>
       <c r="N123">
@@ -10953,7 +10953,7 @@
         <v>0.67257385473760001</v>
       </c>
       <c r="M124">
-        <f t="shared" si="1"/>
+        <f>(L124-H124)</f>
         <v>0.57289485473760005</v>
       </c>
       <c r="N124">
@@ -11002,7 +11002,7 @@
         <v>0.685867182179275</v>
       </c>
       <c r="M125">
-        <f t="shared" si="1"/>
+        <f>(L125-H125)</f>
         <v>0.57207318217927505</v>
       </c>
       <c r="N125">
@@ -11051,7 +11051,7 @@
         <v>0.63066948767665898</v>
       </c>
       <c r="M126">
-        <f t="shared" si="1"/>
+        <f>(L126-H126)</f>
         <v>0.57142748767665896</v>
       </c>
       <c r="N126">
@@ -11100,7 +11100,7 @@
         <v>0.677543297069371</v>
       </c>
       <c r="M127">
-        <f t="shared" si="1"/>
+        <f>(L127-H127)</f>
         <v>0.57121829706937099</v>
       </c>
       <c r="N127">
@@ -11149,7 +11149,7 @@
         <v>0.639913745696716</v>
       </c>
       <c r="M128">
-        <f t="shared" si="1"/>
+        <f>(L128-H128)</f>
         <v>0.57098274569671603</v>
       </c>
       <c r="N128">
@@ -11198,7 +11198,7 @@
         <v>0.74497378200841902</v>
       </c>
       <c r="M129">
-        <f t="shared" si="1"/>
+        <f>(L129-H129)</f>
         <v>0.57026578200841904</v>
       </c>
       <c r="N129">
@@ -11247,7 +11247,7 @@
         <v>0.67894569556960005</v>
       </c>
       <c r="M130">
-        <f t="shared" si="1"/>
+        <f>(L130-H130)</f>
         <v>0.57024769556960009</v>
       </c>
       <c r="N130">
@@ -11296,7 +11296,7 @@
         <v>0.631655158293979</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="2">(L131-H131)</f>
+        <f>(L131-H131)</f>
         <v>0.56988715829397896</v>
       </c>
       <c r="N131">
@@ -11345,7 +11345,7 @@
         <v>0.643196406114379</v>
       </c>
       <c r="M132">
-        <f t="shared" si="2"/>
+        <f>(L132-H132)</f>
         <v>0.56958440611437899</v>
       </c>
       <c r="N132">
@@ -11394,7 +11394,7 @@
         <v>0.64044363868749998</v>
       </c>
       <c r="M133">
-        <f t="shared" si="2"/>
+        <f>(L133-H133)</f>
         <v>0.56775863868749998</v>
       </c>
       <c r="N133">
@@ -11443,7 +11443,7 @@
         <v>0.63820431248421094</v>
       </c>
       <c r="M134">
-        <f t="shared" si="2"/>
+        <f>(L134-H134)</f>
         <v>0.56691231248421092</v>
       </c>
       <c r="N134">
@@ -11492,7 +11492,7 @@
         <v>0.63390352501734404</v>
       </c>
       <c r="M135">
-        <f t="shared" si="2"/>
+        <f>(L135-H135)</f>
         <v>0.56651352501734409</v>
       </c>
       <c r="N135">
@@ -11541,7 +11541,7 @@
         <v>0.63285007277439997</v>
       </c>
       <c r="M136">
-        <f t="shared" si="2"/>
+        <f>(L136-H136)</f>
         <v>0.56589107277439998</v>
       </c>
       <c r="N136">
@@ -11590,7 +11590,7 @@
         <v>0.655492366585264</v>
       </c>
       <c r="M137">
-        <f t="shared" si="2"/>
+        <f>(L137-H137)</f>
         <v>0.56531236658526396</v>
       </c>
       <c r="N137">
@@ -11639,7 +11639,7 @@
         <v>0.64251035920425104</v>
       </c>
       <c r="M138">
-        <f t="shared" si="2"/>
+        <f>(L138-H138)</f>
         <v>0.56403435920425105</v>
       </c>
       <c r="N138">
@@ -11688,7 +11688,7 @@
         <v>0.63682760557783602</v>
       </c>
       <c r="M139">
-        <f t="shared" si="2"/>
+        <f>(L139-H139)</f>
         <v>0.56245560557783603</v>
       </c>
       <c r="N139">
@@ -11737,7 +11737,7 @@
         <v>0.63915245545113097</v>
       </c>
       <c r="M140">
-        <f t="shared" si="2"/>
+        <f>(L140-H140)</f>
         <v>0.56194145545113094</v>
       </c>
       <c r="N140">
@@ -11786,7 +11786,7 @@
         <v>0.63648644040589897</v>
       </c>
       <c r="M141">
-        <f t="shared" si="2"/>
+        <f>(L141-H141)</f>
         <v>0.56052744040589897</v>
       </c>
       <c r="N141">
@@ -11835,7 +11835,7 @@
         <v>0.61795610555637104</v>
       </c>
       <c r="M142">
-        <f t="shared" si="2"/>
+        <f>(L142-H142)</f>
         <v>0.5603151055563711</v>
       </c>
       <c r="N142">
@@ -11884,7 +11884,7 @@
         <v>0.66490418042695598</v>
       </c>
       <c r="M143">
-        <f t="shared" si="2"/>
+        <f>(L143-H143)</f>
         <v>0.55849218042695603</v>
       </c>
       <c r="N143">
@@ -11933,7 +11933,7 @@
         <v>0.644447837504176</v>
       </c>
       <c r="M144">
-        <f t="shared" si="2"/>
+        <f>(L144-H144)</f>
         <v>0.55831383750417596</v>
       </c>
       <c r="N144">
@@ -11982,7 +11982,7 @@
         <v>0.642620984174611</v>
       </c>
       <c r="M145">
-        <f t="shared" si="2"/>
+        <f>(L145-H145)</f>
         <v>0.55787198417461104</v>
       </c>
       <c r="N145">
@@ -12031,7 +12031,7 @@
         <v>0.66115518722989897</v>
       </c>
       <c r="M146">
-        <f t="shared" si="2"/>
+        <f>(L146-H146)</f>
         <v>0.55782718722989899</v>
       </c>
       <c r="N146">
@@ -12080,7 +12080,7 @@
         <v>0.64238868406740401</v>
       </c>
       <c r="M147">
-        <f t="shared" si="2"/>
+        <f>(L147-H147)</f>
         <v>0.55638968406740397</v>
       </c>
       <c r="N147">
@@ -12129,7 +12129,7 @@
         <v>0.73871900889921105</v>
       </c>
       <c r="M148">
-        <f t="shared" si="2"/>
+        <f>(L148-H148)</f>
         <v>0.55548000889921101</v>
       </c>
       <c r="N148">
@@ -12178,7 +12178,7 @@
         <v>0.63092129902182403</v>
       </c>
       <c r="M149">
-        <f t="shared" si="2"/>
+        <f>(L149-H149)</f>
         <v>0.55478829902182403</v>
       </c>
       <c r="N149">
@@ -12227,7 +12227,7 @@
         <v>0.62050231701073599</v>
       </c>
       <c r="M150">
-        <f t="shared" si="2"/>
+        <f>(L150-H150)</f>
         <v>0.55400131701073596</v>
       </c>
       <c r="N150">
@@ -12276,7 +12276,7 @@
         <v>0.62562332476717897</v>
       </c>
       <c r="M151">
-        <f t="shared" si="2"/>
+        <f>(L151-H151)</f>
         <v>0.55380532476717892</v>
       </c>
       <c r="N151">
@@ -12325,7 +12325,7 @@
         <v>0.60955784985108397</v>
       </c>
       <c r="M152">
-        <f t="shared" si="2"/>
+        <f>(L152-H152)</f>
         <v>0.55150084985108394</v>
       </c>
       <c r="N152">
@@ -12374,7 +12374,7 @@
         <v>0.67092945976187501</v>
       </c>
       <c r="M153">
-        <f t="shared" si="2"/>
+        <f>(L153-H153)</f>
         <v>0.55068445976187497</v>
       </c>
       <c r="N153">
@@ -12423,7 +12423,7 @@
         <v>0.61428266074881099</v>
       </c>
       <c r="M154">
-        <f t="shared" si="2"/>
+        <f>(L154-H154)</f>
         <v>0.55030666074881096</v>
       </c>
       <c r="N154">
@@ -12472,7 +12472,7 @@
         <v>0.61985165998969605</v>
       </c>
       <c r="M155">
-        <f t="shared" si="2"/>
+        <f>(L155-H155)</f>
         <v>0.54872765998969608</v>
       </c>
       <c r="N155">
@@ -12521,7 +12521,7 @@
         <v>0.671450886804139</v>
       </c>
       <c r="M156">
-        <f t="shared" si="2"/>
+        <f>(L156-H156)</f>
         <v>0.546782886804139</v>
       </c>
       <c r="N156">
@@ -12570,7 +12570,7 @@
         <v>0.66875550783573101</v>
       </c>
       <c r="M157">
-        <f t="shared" si="2"/>
+        <f>(L157-H157)</f>
         <v>0.54625450783573104</v>
       </c>
       <c r="N157">
@@ -12619,7 +12619,7 @@
         <v>0.67726984665873102</v>
       </c>
       <c r="M158">
-        <f t="shared" si="2"/>
+        <f>(L158-H158)</f>
         <v>0.54624284665873102</v>
       </c>
       <c r="N158">
@@ -12668,7 +12668,7 @@
         <v>0.73575758580997896</v>
       </c>
       <c r="M159">
-        <f t="shared" si="2"/>
+        <f>(L159-H159)</f>
         <v>0.54600558580997893</v>
       </c>
       <c r="N159">
@@ -12717,7 +12717,7 @@
         <v>0.60098997158745104</v>
       </c>
       <c r="M160">
-        <f t="shared" si="2"/>
+        <f>(L160-H160)</f>
         <v>0.54599697158745109</v>
       </c>
       <c r="N160">
@@ -12766,7 +12766,7 @@
         <v>0.609418248832579</v>
       </c>
       <c r="M161">
-        <f t="shared" si="2"/>
+        <f>(L161-H161)</f>
         <v>0.54186024883257899</v>
       </c>
       <c r="N161">
@@ -12815,7 +12815,7 @@
         <v>0.60139489005157898</v>
       </c>
       <c r="M162">
-        <f t="shared" si="2"/>
+        <f>(L162-H162)</f>
         <v>0.54161389005157901</v>
       </c>
       <c r="N162">
@@ -12864,7 +12864,7 @@
         <v>0.663551827520236</v>
       </c>
       <c r="M163">
-        <f t="shared" si="2"/>
+        <f>(L163-H163)</f>
         <v>0.54115082752023602</v>
       </c>
       <c r="N163">
@@ -12913,7 +12913,7 @@
         <v>0.60273861745629098</v>
       </c>
       <c r="M164">
-        <f t="shared" si="2"/>
+        <f>(L164-H164)</f>
         <v>0.539285617456291</v>
       </c>
       <c r="N164">
@@ -12962,7 +12962,7 @@
         <v>0.60861321064260399</v>
       </c>
       <c r="M165">
-        <f t="shared" si="2"/>
+        <f>(L165-H165)</f>
         <v>0.53886721064260401</v>
       </c>
       <c r="N165">
@@ -13011,7 +13011,7 @@
         <v>0.69180134296177898</v>
       </c>
       <c r="M166">
-        <f t="shared" si="2"/>
+        <f>(L166-H166)</f>
         <v>0.53790234296177897</v>
       </c>
       <c r="N166">
@@ -13060,7 +13060,7 @@
         <v>0.61050331579351602</v>
       </c>
       <c r="M167">
-        <f t="shared" si="2"/>
+        <f>(L167-H167)</f>
         <v>0.53785031579351605</v>
       </c>
       <c r="N167">
@@ -13109,7 +13109,7 @@
         <v>0.62425105326249097</v>
       </c>
       <c r="M168">
-        <f t="shared" si="2"/>
+        <f>(L168-H168)</f>
         <v>0.53757005326249097</v>
       </c>
       <c r="N168">
@@ -13158,7 +13158,7 @@
         <v>0.60343247286535595</v>
       </c>
       <c r="M169">
-        <f t="shared" si="2"/>
+        <f>(L169-H169)</f>
         <v>0.53690047286535592</v>
       </c>
       <c r="N169">
@@ -13207,7 +13207,7 @@
         <v>0.63140318243473603</v>
       </c>
       <c r="M170">
-        <f t="shared" si="2"/>
+        <f>(L170-H170)</f>
         <v>0.536868182434736</v>
       </c>
       <c r="N170">
@@ -13256,7 +13256,7 @@
         <v>0.61206298922181102</v>
       </c>
       <c r="M171">
-        <f t="shared" si="2"/>
+        <f>(L171-H171)</f>
         <v>0.53505198922181108</v>
       </c>
       <c r="N171">
@@ -13305,7 +13305,7 @@
         <v>0.60940751104000002</v>
       </c>
       <c r="M172">
-        <f t="shared" si="2"/>
+        <f>(L172-H172)</f>
         <v>0.53462151104</v>
       </c>
       <c r="N172">
@@ -13354,7 +13354,7 @@
         <v>0.60896735346289899</v>
       </c>
       <c r="M173">
-        <f t="shared" si="2"/>
+        <f>(L173-H173)</f>
         <v>0.53460135346289894</v>
       </c>
       <c r="N173">
@@ -13403,7 +13403,7 @@
         <v>0.60718708626237095</v>
       </c>
       <c r="M174">
-        <f t="shared" si="2"/>
+        <f>(L174-H174)</f>
         <v>0.53424608626237091</v>
       </c>
       <c r="N174">
@@ -13452,7 +13452,7 @@
         <v>0.60687637758558399</v>
       </c>
       <c r="M175">
-        <f t="shared" si="2"/>
+        <f>(L175-H175)</f>
         <v>0.53268437758558396</v>
       </c>
       <c r="N175">
@@ -13501,7 +13501,7 @@
         <v>0.61485447402084403</v>
       </c>
       <c r="M176">
-        <f t="shared" si="2"/>
+        <f>(L176-H176)</f>
         <v>0.53210847402084405</v>
       </c>
       <c r="N176">
@@ -13550,7 +13550,7 @@
         <v>0.60157608769489601</v>
       </c>
       <c r="M177">
-        <f t="shared" si="2"/>
+        <f>(L177-H177)</f>
         <v>0.53145308769489596</v>
       </c>
       <c r="N177">
@@ -13599,7 +13599,7 @@
         <v>0.59192006181175605</v>
       </c>
       <c r="M178">
-        <f t="shared" si="2"/>
+        <f>(L178-H178)</f>
         <v>0.53041806181175599</v>
       </c>
       <c r="N178">
@@ -13648,7 +13648,7 @@
         <v>0.60061715675383598</v>
       </c>
       <c r="M179">
-        <f t="shared" si="2"/>
+        <f>(L179-H179)</f>
         <v>0.53006815675383601</v>
       </c>
       <c r="N179">
@@ -13697,7 +13697,7 @@
         <v>0.64070867742180404</v>
       </c>
       <c r="M180">
-        <f t="shared" si="2"/>
+        <f>(L180-H180)</f>
         <v>0.529907677421804</v>
       </c>
       <c r="N180">
@@ -13746,7 +13746,7 @@
         <v>0.59774555236945603</v>
       </c>
       <c r="M181">
-        <f t="shared" si="2"/>
+        <f>(L181-H181)</f>
         <v>0.52923955236945608</v>
       </c>
       <c r="N181">
@@ -13795,7 +13795,7 @@
         <v>0.57521915564958404</v>
       </c>
       <c r="M182">
-        <f t="shared" si="2"/>
+        <f>(L182-H182)</f>
         <v>0.52900815564958403</v>
       </c>
       <c r="N182">
@@ -13844,7 +13844,7 @@
         <v>0.59267026431733905</v>
       </c>
       <c r="M183">
-        <f t="shared" si="2"/>
+        <f>(L183-H183)</f>
         <v>0.52878526431733908</v>
       </c>
       <c r="N183">
@@ -13893,7 +13893,7 @@
         <v>0.58242570189347498</v>
       </c>
       <c r="M184">
-        <f t="shared" si="2"/>
+        <f>(L184-H184)</f>
         <v>0.52680970189347498</v>
       </c>
       <c r="N184">
@@ -13942,7 +13942,7 @@
         <v>0.61576135839790003</v>
       </c>
       <c r="M185">
-        <f t="shared" si="2"/>
+        <f>(L185-H185)</f>
         <v>0.52608335839789999</v>
       </c>
       <c r="N185">
@@ -13991,7 +13991,7 @@
         <v>0.58614787321390005</v>
       </c>
       <c r="M186">
-        <f t="shared" si="2"/>
+        <f>(L186-H186)</f>
         <v>0.52577987321390007</v>
       </c>
       <c r="N186">
@@ -14040,7 +14040,7 @@
         <v>0.58553882430841597</v>
       </c>
       <c r="M187">
-        <f t="shared" si="2"/>
+        <f>(L187-H187)</f>
         <v>0.52493182430841601</v>
       </c>
       <c r="N187">
@@ -14089,7 +14089,7 @@
         <v>0.6210665306416</v>
       </c>
       <c r="M188">
-        <f t="shared" si="2"/>
+        <f>(L188-H188)</f>
         <v>0.52491853064159999</v>
       </c>
       <c r="N188">
@@ -14138,7 +14138,7 @@
         <v>0.578154020789164</v>
       </c>
       <c r="M189">
-        <f t="shared" si="2"/>
+        <f>(L189-H189)</f>
         <v>0.52323602078916398</v>
       </c>
       <c r="N189">
@@ -14187,7 +14187,7 @@
         <v>0.68610813384804403</v>
       </c>
       <c r="M190">
-        <f t="shared" si="2"/>
+        <f>(L190-H190)</f>
         <v>0.52242513384804401</v>
       </c>
       <c r="N190">
@@ -14236,7 +14236,7 @@
         <v>0.63279523242647495</v>
       </c>
       <c r="M191">
-        <f t="shared" si="2"/>
+        <f>(L191-H191)</f>
         <v>0.52238923242647495</v>
       </c>
       <c r="N191">
@@ -14285,7 +14285,7 @@
         <v>0.58725137533127503</v>
       </c>
       <c r="M192">
-        <f t="shared" si="2"/>
+        <f>(L192-H192)</f>
         <v>0.52203137533127508</v>
       </c>
       <c r="N192">
@@ -14334,7 +14334,7 @@
         <v>0.56192246425950398</v>
       </c>
       <c r="M193">
-        <f t="shared" si="2"/>
+        <f>(L193-H193)</f>
         <v>0.518032464259504</v>
       </c>
       <c r="N193">
@@ -14383,7 +14383,7 @@
         <v>0.677440745959216</v>
       </c>
       <c r="M194">
-        <f t="shared" si="2"/>
+        <f>(L194-H194)</f>
         <v>0.51747774595921603</v>
       </c>
       <c r="N194">
@@ -14432,7 +14432,7 @@
         <v>0.59219472140262397</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="3">(L195-H195)</f>
+        <f>(L195-H195)</f>
         <v>0.51679072140262394</v>
       </c>
       <c r="N195">
@@ -14481,7 +14481,7 @@
         <v>0.58520295105760001</v>
       </c>
       <c r="M196">
-        <f t="shared" si="3"/>
+        <f>(L196-H196)</f>
         <v>0.51665595105759998</v>
       </c>
       <c r="N196">
@@ -14530,7 +14530,7 @@
         <v>0.60451151237637102</v>
       </c>
       <c r="M197">
-        <f t="shared" si="3"/>
+        <f>(L197-H197)</f>
         <v>0.51621751237637103</v>
       </c>
       <c r="N197">
@@ -14579,7 +14579,7 @@
         <v>0.58034507377734401</v>
       </c>
       <c r="M198">
-        <f t="shared" si="3"/>
+        <f>(L198-H198)</f>
         <v>0.51586607377734406</v>
       </c>
       <c r="N198">
@@ -14628,7 +14628,7 @@
         <v>0.55608439661147502</v>
       </c>
       <c r="M199">
-        <f t="shared" si="3"/>
+        <f>(L199-H199)</f>
         <v>0.51404039661147505</v>
       </c>
       <c r="N199">
@@ -14677,7 +14677,7 @@
         <v>0.61185849043153595</v>
       </c>
       <c r="M200">
-        <f t="shared" si="3"/>
+        <f>(L200-H200)</f>
         <v>0.51351149043153599</v>
       </c>
       <c r="N200">
@@ -14726,7 +14726,7 @@
         <v>0.57760178479917101</v>
       </c>
       <c r="M201">
-        <f t="shared" si="3"/>
+        <f>(L201-H201)</f>
         <v>0.51305078479917099</v>
       </c>
       <c r="N201">
@@ -14775,7 +14775,7 @@
         <v>0.60529209024102404</v>
       </c>
       <c r="M202">
-        <f t="shared" si="3"/>
+        <f>(L202-H202)</f>
         <v>0.51179409024102407</v>
       </c>
       <c r="N202">
@@ -14824,7 +14824,7 @@
         <v>0.5810137593136</v>
       </c>
       <c r="M203">
-        <f t="shared" si="3"/>
+        <f>(L203-H203)</f>
         <v>0.51178075931360001</v>
       </c>
       <c r="N203">
@@ -14873,7 +14873,7 @@
         <v>0.59143430240377604</v>
       </c>
       <c r="M204">
-        <f t="shared" si="3"/>
+        <f>(L204-H204)</f>
         <v>0.51140130240377601</v>
       </c>
       <c r="N204">
@@ -14922,7 +14922,7 @@
         <v>0.55934165300550398</v>
       </c>
       <c r="M205">
-        <f t="shared" si="3"/>
+        <f>(L205-H205)</f>
         <v>0.51133065300550395</v>
       </c>
       <c r="N205">
@@ -14971,7 +14971,7 @@
         <v>0.578977721636875</v>
       </c>
       <c r="M206">
-        <f t="shared" si="3"/>
+        <f>(L206-H206)</f>
         <v>0.51117072163687505</v>
       </c>
       <c r="N206">
@@ -15020,7 +15020,7 @@
         <v>0.57960376239827505</v>
       </c>
       <c r="M207">
-        <f t="shared" si="3"/>
+        <f>(L207-H207)</f>
         <v>0.51062976239827507</v>
       </c>
       <c r="N207">
@@ -15069,7 +15069,7 @@
         <v>0.62823094072567598</v>
       </c>
       <c r="M208">
-        <f t="shared" si="3"/>
+        <f>(L208-H208)</f>
         <v>0.50956194072567595</v>
       </c>
       <c r="N208">
@@ -15118,7 +15118,7 @@
         <v>0.55759424928921097</v>
       </c>
       <c r="M209">
-        <f t="shared" si="3"/>
+        <f>(L209-H209)</f>
         <v>0.50876024928921093</v>
       </c>
       <c r="N209">
@@ -15167,7 +15167,7 @@
         <v>0.56310246828769905</v>
       </c>
       <c r="M210">
-        <f t="shared" si="3"/>
+        <f>(L210-H210)</f>
         <v>0.50799346828769909</v>
       </c>
       <c r="N210">
@@ -15216,7 +15216,7 @@
         <v>0.58140054261657104</v>
       </c>
       <c r="M211">
-        <f t="shared" si="3"/>
+        <f>(L211-H211)</f>
         <v>0.50681154261657102</v>
       </c>
       <c r="N211">
@@ -15265,7 +15265,7 @@
         <v>0.57082242930039995</v>
       </c>
       <c r="M212">
-        <f t="shared" si="3"/>
+        <f>(L212-H212)</f>
         <v>0.50609242930039999</v>
       </c>
       <c r="N212">
@@ -15314,7 +15314,7 @@
         <v>0.58624241299021895</v>
       </c>
       <c r="M213">
-        <f t="shared" si="3"/>
+        <f>(L213-H213)</f>
         <v>0.50582141299021899</v>
       </c>
       <c r="N213">
@@ -15363,7 +15363,7 @@
         <v>0.57690410431860395</v>
       </c>
       <c r="M214">
-        <f t="shared" si="3"/>
+        <f>(L214-H214)</f>
         <v>0.50572610431860399</v>
       </c>
       <c r="N214">
@@ -15412,7 +15412,7 @@
         <v>0.60546325181209604</v>
       </c>
       <c r="M215">
-        <f t="shared" si="3"/>
+        <f>(L215-H215)</f>
         <v>0.50472425181209601</v>
       </c>
       <c r="N215">
@@ -15461,7 +15461,7 @@
         <v>0.57549978586129902</v>
       </c>
       <c r="M216">
-        <f t="shared" si="3"/>
+        <f>(L216-H216)</f>
         <v>0.50391278586129906</v>
       </c>
       <c r="N216">
@@ -15510,7 +15510,7 @@
         <v>0.57270735232183601</v>
       </c>
       <c r="M217">
-        <f t="shared" si="3"/>
+        <f>(L217-H217)</f>
         <v>0.50368435232183595</v>
       </c>
       <c r="N217">
@@ -15559,7 +15559,7 @@
         <v>0.57294580856147503</v>
       </c>
       <c r="M218">
-        <f t="shared" si="3"/>
+        <f>(L218-H218)</f>
         <v>0.50295280856147506</v>
       </c>
       <c r="N218">
@@ -15608,7 +15608,7 @@
         <v>0.56611529447262399</v>
       </c>
       <c r="M219">
-        <f t="shared" si="3"/>
+        <f>(L219-H219)</f>
         <v>0.50288029447262395</v>
       </c>
       <c r="N219">
@@ -15657,7 +15657,7 @@
         <v>0.55646164055335601</v>
       </c>
       <c r="M220">
-        <f t="shared" si="3"/>
+        <f>(L220-H220)</f>
         <v>0.50111764055335606</v>
       </c>
       <c r="N220">
@@ -15706,7 +15706,7 @@
         <v>0.56773344696529904</v>
       </c>
       <c r="M221">
-        <f t="shared" si="3"/>
+        <f>(L221-H221)</f>
         <v>0.50110744696529907</v>
       </c>
       <c r="N221">
@@ -15755,7 +15755,7 @@
         <v>0.568321580197516</v>
       </c>
       <c r="M222">
-        <f t="shared" si="3"/>
+        <f>(L222-H222)</f>
         <v>0.50058758019751604</v>
       </c>
       <c r="N222">
@@ -15804,7 +15804,7 @@
         <v>0.55654322602749995</v>
       </c>
       <c r="M223">
-        <f t="shared" si="3"/>
+        <f>(L223-H223)</f>
         <v>0.49919022602749996</v>
       </c>
       <c r="N223">
@@ -15853,7 +15853,7 @@
         <v>0.67313005425361905</v>
       </c>
       <c r="M224">
-        <f t="shared" si="3"/>
+        <f>(L224-H224)</f>
         <v>0.49916105425361901</v>
       </c>
       <c r="N224">
@@ -15902,7 +15902,7 @@
         <v>0.570863818174144</v>
       </c>
       <c r="M225">
-        <f t="shared" si="3"/>
+        <f>(L225-H225)</f>
         <v>0.49882281817414398</v>
       </c>
       <c r="N225">
@@ -15951,7 +15951,7 @@
         <v>0.56075411464807601</v>
       </c>
       <c r="M226">
-        <f t="shared" si="3"/>
+        <f>(L226-H226)</f>
         <v>0.49809611464807602</v>
       </c>
       <c r="N226">
@@ -16000,7 +16000,7 @@
         <v>0.55915756876644396</v>
       </c>
       <c r="M227">
-        <f t="shared" si="3"/>
+        <f>(L227-H227)</f>
         <v>0.49789756876644398</v>
       </c>
       <c r="N227">
@@ -16049,7 +16049,7 @@
         <v>0.56557992599929596</v>
       </c>
       <c r="M228">
-        <f t="shared" si="3"/>
+        <f>(L228-H228)</f>
         <v>0.49640692599929598</v>
       </c>
       <c r="N228">
@@ -16098,7 +16098,7 @@
         <v>0.54838816041321103</v>
       </c>
       <c r="M229">
-        <f t="shared" si="3"/>
+        <f>(L229-H229)</f>
         <v>0.49583016041321104</v>
       </c>
       <c r="N229">
@@ -16147,7 +16147,7 @@
         <v>0.61206298922181102</v>
       </c>
       <c r="M230">
-        <f t="shared" si="3"/>
+        <f>(L230-H230)</f>
         <v>0.49576998922181104</v>
       </c>
       <c r="N230">
@@ -16196,7 +16196,7 @@
         <v>0.55538127805278403</v>
       </c>
       <c r="M231">
-        <f t="shared" si="3"/>
+        <f>(L231-H231)</f>
         <v>0.49477327805278404</v>
       </c>
       <c r="N231">
@@ -16245,7 +16245,7 @@
         <v>0.566455197270331</v>
       </c>
       <c r="M232">
-        <f t="shared" si="3"/>
+        <f>(L232-H232)</f>
         <v>0.49433619727033101</v>
       </c>
       <c r="N232">
@@ -16294,7 +16294,7 @@
         <v>0.54471414291333098</v>
       </c>
       <c r="M233">
-        <f t="shared" si="3"/>
+        <f>(L233-H233)</f>
         <v>0.49402014291333096</v>
       </c>
       <c r="N233">
@@ -16343,7 +16343,7 @@
         <v>0.55664521747840001</v>
       </c>
       <c r="M234">
-        <f t="shared" si="3"/>
+        <f>(L234-H234)</f>
         <v>0.49395021747840001</v>
       </c>
       <c r="N234">
@@ -16392,7 +16392,7 @@
         <v>0.56406804200327498</v>
       </c>
       <c r="M235">
-        <f t="shared" si="3"/>
+        <f>(L235-H235)</f>
         <v>0.49286004200327499</v>
       </c>
       <c r="N235">
@@ -16441,7 +16441,7 @@
         <v>0.53896926553165903</v>
       </c>
       <c r="M236">
-        <f t="shared" si="3"/>
+        <f>(L236-H236)</f>
         <v>0.49202526553165904</v>
       </c>
       <c r="N236">
@@ -16490,7 +16490,7 @@
         <v>0.58009442943769596</v>
       </c>
       <c r="M237">
-        <f t="shared" si="3"/>
+        <f>(L237-H237)</f>
         <v>0.49155942943769593</v>
       </c>
       <c r="N237">
@@ -16539,7 +16539,7 @@
         <v>0.55612517269429895</v>
       </c>
       <c r="M238">
-        <f t="shared" si="3"/>
+        <f>(L238-H238)</f>
         <v>0.49133717269429894</v>
       </c>
       <c r="N238">
@@ -16588,7 +16588,7 @@
         <v>0.558830393303404</v>
       </c>
       <c r="M239">
-        <f t="shared" si="3"/>
+        <f>(L239-H239)</f>
         <v>0.49099039330340399</v>
       </c>
       <c r="N239">
@@ -16637,7 +16637,7 @@
         <v>0.54311372245830403</v>
       </c>
       <c r="M240">
-        <f t="shared" si="3"/>
+        <f>(L240-H240)</f>
         <v>0.49089672245830401</v>
       </c>
       <c r="N240">
@@ -16686,7 +16686,7 @@
         <v>0.53734856702977896</v>
       </c>
       <c r="M241">
-        <f t="shared" si="3"/>
+        <f>(L241-H241)</f>
         <v>0.49068356702977894</v>
       </c>
       <c r="N241">
@@ -16735,7 +16735,7 @@
         <v>0.55059530604527496</v>
       </c>
       <c r="M242">
-        <f t="shared" si="3"/>
+        <f>(L242-H242)</f>
         <v>0.49031530604527496</v>
       </c>
       <c r="N242">
@@ -16784,7 +16784,7 @@
         <v>0.55880994846673604</v>
       </c>
       <c r="M243">
-        <f t="shared" si="3"/>
+        <f>(L243-H243)</f>
         <v>0.48999694846673603</v>
       </c>
       <c r="N243">
@@ -16833,7 +16833,7 @@
         <v>0.57264515563422402</v>
       </c>
       <c r="M244">
-        <f t="shared" si="3"/>
+        <f>(L244-H244)</f>
         <v>0.489944155634224</v>
       </c>
       <c r="N244">
@@ -16882,7 +16882,7 @@
         <v>0.56254820360925095</v>
       </c>
       <c r="M245">
-        <f t="shared" si="3"/>
+        <f>(L245-H245)</f>
         <v>0.48986220360925092</v>
       </c>
       <c r="N245">
@@ -16931,7 +16931,7 @@
         <v>0.55556465128356403</v>
       </c>
       <c r="M246">
-        <f t="shared" si="3"/>
+        <f>(L246-H246)</f>
         <v>0.48982165128356403</v>
       </c>
       <c r="N246">
@@ -16980,7 +16980,7 @@
         <v>0.54387836659</v>
       </c>
       <c r="M247">
-        <f t="shared" si="3"/>
+        <f>(L247-H247)</f>
         <v>0.48977236659000001</v>
       </c>
       <c r="N247">
@@ -17029,7 +17029,7 @@
         <v>0.53498259282577598</v>
       </c>
       <c r="M248">
-        <f t="shared" si="3"/>
+        <f>(L248-H248)</f>
         <v>0.48911159282577599</v>
       </c>
       <c r="N248">
@@ -17078,7 +17078,7 @@
         <v>0.53602008789342404</v>
       </c>
       <c r="M249">
-        <f t="shared" si="3"/>
+        <f>(L249-H249)</f>
         <v>0.48905008789342402</v>
       </c>
       <c r="N249">
@@ -17127,7 +17127,7 @@
         <v>0.55938256531153596</v>
       </c>
       <c r="M250">
-        <f t="shared" si="3"/>
+        <f>(L250-H250)</f>
         <v>0.48900856531153597</v>
       </c>
       <c r="N250">
@@ -17176,7 +17176,7 @@
         <v>0.59070608685417103</v>
       </c>
       <c r="M251">
-        <f t="shared" si="3"/>
+        <f>(L251-H251)</f>
         <v>0.48788508685417104</v>
       </c>
       <c r="N251">
@@ -17225,7 +17225,7 @@
         <v>0.55668601704798404</v>
       </c>
       <c r="M252">
-        <f t="shared" si="3"/>
+        <f>(L252-H252)</f>
         <v>0.48631801704798405</v>
       </c>
       <c r="N252">
@@ -17274,7 +17274,7 @@
         <v>0.55043314118437903</v>
       </c>
       <c r="M253">
-        <f t="shared" si="3"/>
+        <f>(L253-H253)</f>
         <v>0.48508014118437903</v>
       </c>
       <c r="N253">
@@ -17323,7 +17323,7 @@
         <v>0.54402935605727498</v>
       </c>
       <c r="M254">
-        <f t="shared" si="3"/>
+        <f>(L254-H254)</f>
         <v>0.481379356057275</v>
       </c>
       <c r="N254">
@@ -17372,7 +17372,7 @@
         <v>0.55809464821351595</v>
       </c>
       <c r="M255">
-        <f t="shared" si="3"/>
+        <f>(L255-H255)</f>
         <v>0.48121664821351595</v>
       </c>
       <c r="N255">
@@ -17421,7 +17421,7 @@
         <v>0.52936637781381102</v>
       </c>
       <c r="M256">
-        <f t="shared" si="3"/>
+        <f>(L256-H256)</f>
         <v>0.480728377813811</v>
       </c>
       <c r="N256">
@@ -17470,7 +17470,7 @@
         <v>0.54313383677220395</v>
       </c>
       <c r="M257">
-        <f t="shared" si="3"/>
+        <f>(L257-H257)</f>
         <v>0.48036983677220396</v>
       </c>
       <c r="N257">
@@ -17519,7 +17519,7 @@
         <v>0.53211555583710402</v>
       </c>
       <c r="M258">
-        <f t="shared" si="3"/>
+        <f>(L258-H258)</f>
         <v>0.479894555837104</v>
       </c>
       <c r="N258">
@@ -17568,7 +17568,7 @@
         <v>0.54461340800409097</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M322" si="4">(L259-H259)</f>
+        <f>(L259-H259)</f>
         <v>0.47944740800409097</v>
       </c>
       <c r="N259">
@@ -17617,7 +17617,7 @@
         <v>0.54423071271227497</v>
       </c>
       <c r="M260">
-        <f t="shared" si="4"/>
+        <f>(L260-H260)</f>
         <v>0.47943571271227498</v>
       </c>
       <c r="N260">
@@ -17666,7 +17666,7 @@
         <v>0.55178196722119599</v>
       </c>
       <c r="M261">
-        <f t="shared" si="4"/>
+        <f>(L261-H261)</f>
         <v>0.47908496722119598</v>
       </c>
       <c r="N261">
@@ -17715,7 +17715,7 @@
         <v>0.56244559616469103</v>
       </c>
       <c r="M262">
-        <f t="shared" si="4"/>
+        <f>(L262-H262)</f>
         <v>0.47872859616469104</v>
       </c>
       <c r="N262">
@@ -17764,7 +17764,7 @@
         <v>0.54186746899000005</v>
       </c>
       <c r="M263">
-        <f t="shared" si="4"/>
+        <f>(L263-H263)</f>
         <v>0.47612046899000005</v>
       </c>
       <c r="N263">
@@ -17813,7 +17813,7 @@
         <v>0.53794849905469899</v>
       </c>
       <c r="M264">
-        <f t="shared" si="4"/>
+        <f>(L264-H264)</f>
         <v>0.47412149905469902</v>
       </c>
       <c r="N264">
@@ -17862,7 +17862,7 @@
         <v>0.51775663443409603</v>
       </c>
       <c r="M265">
-        <f t="shared" si="4"/>
+        <f>(L265-H265)</f>
         <v>0.47379663443409603</v>
       </c>
       <c r="N265">
@@ -17911,7 +17911,7 @@
         <v>0.51478717777758398</v>
       </c>
       <c r="M266">
-        <f t="shared" si="4"/>
+        <f>(L266-H266)</f>
         <v>0.47374917777758396</v>
       </c>
       <c r="N266">
@@ -17960,7 +17960,7 @@
         <v>0.55334612503518399</v>
       </c>
       <c r="M267">
-        <f t="shared" si="4"/>
+        <f>(L267-H267)</f>
         <v>0.47327512503518399</v>
       </c>
       <c r="N267">
@@ -18009,7 +18009,7 @@
         <v>0.54273163163028404</v>
       </c>
       <c r="M268">
-        <f t="shared" si="4"/>
+        <f>(L268-H268)</f>
         <v>0.47255463163028405</v>
       </c>
       <c r="N268">
@@ -18058,7 +18058,7 @@
         <v>0.534912802902475</v>
       </c>
       <c r="M269">
-        <f t="shared" si="4"/>
+        <f>(L269-H269)</f>
         <v>0.47222180290247501</v>
       </c>
       <c r="N269">
@@ -18107,7 +18107,7 @@
         <v>0.53806853157913903</v>
       </c>
       <c r="M270">
-        <f t="shared" si="4"/>
+        <f>(L270-H270)</f>
         <v>0.46947453157913904</v>
       </c>
       <c r="N270">
@@ -18156,7 +18156,7 @@
         <v>0.53546129322040004</v>
       </c>
       <c r="M271">
-        <f t="shared" si="4"/>
+        <f>(L271-H271)</f>
         <v>0.46935629322040007</v>
       </c>
       <c r="N271">
@@ -18205,7 +18205,7 @@
         <v>0.53068535794359994</v>
       </c>
       <c r="M272">
-        <f t="shared" si="4"/>
+        <f>(L272-H272)</f>
         <v>0.46896935794359995</v>
       </c>
       <c r="N272">
@@ -18254,7 +18254,7 @@
         <v>0.52239649246429898</v>
       </c>
       <c r="M273">
-        <f t="shared" si="4"/>
+        <f>(L273-H273)</f>
         <v>0.46767049246429898</v>
       </c>
       <c r="N273">
@@ -18303,7 +18303,7 @@
         <v>0.526961388994864</v>
       </c>
       <c r="M274">
-        <f t="shared" si="4"/>
+        <f>(L274-H274)</f>
         <v>0.46711338899486399</v>
       </c>
       <c r="N274">
@@ -18352,7 +18352,7 @@
         <v>0.52856401443492396</v>
       </c>
       <c r="M275">
-        <f t="shared" si="4"/>
+        <f>(L275-H275)</f>
         <v>0.46679201443492396</v>
       </c>
       <c r="N275">
@@ -18401,7 +18401,7 @@
         <v>0.52930691946889896</v>
       </c>
       <c r="M276">
-        <f t="shared" si="4"/>
+        <f>(L276-H276)</f>
         <v>0.46605591946889896</v>
       </c>
       <c r="N276">
@@ -18450,7 +18450,7 @@
         <v>0.577122728726011</v>
       </c>
       <c r="M277">
-        <f t="shared" si="4"/>
+        <f>(L277-H277)</f>
         <v>0.465164728726011</v>
       </c>
       <c r="N277">
@@ -18499,7 +18499,7 @@
         <v>0.52857391588533098</v>
       </c>
       <c r="M278">
-        <f t="shared" si="4"/>
+        <f>(L278-H278)</f>
         <v>0.46418491588533095</v>
       </c>
       <c r="N278">
@@ -18548,7 +18548,7 @@
         <v>0.513588523504099</v>
       </c>
       <c r="M279">
-        <f t="shared" si="4"/>
+        <f>(L279-H279)</f>
         <v>0.463823523504099</v>
       </c>
       <c r="N279">
@@ -18597,7 +18597,7 @@
         <v>0.50994405827172395</v>
       </c>
       <c r="M280">
-        <f t="shared" si="4"/>
+        <f>(L280-H280)</f>
         <v>0.46338505827172394</v>
       </c>
       <c r="N280">
@@ -18646,7 +18646,7 @@
         <v>0.528633326829691</v>
       </c>
       <c r="M281">
-        <f t="shared" si="4"/>
+        <f>(L281-H281)</f>
         <v>0.463274326829691</v>
       </c>
       <c r="N281">
@@ -18695,7 +18695,7 @@
         <v>0.52550957943357102</v>
       </c>
       <c r="M282">
-        <f t="shared" si="4"/>
+        <f>(L282-H282)</f>
         <v>0.46313757943357103</v>
       </c>
       <c r="N282">
@@ -18744,7 +18744,7 @@
         <v>0.52194421044347505</v>
       </c>
       <c r="M283">
-        <f t="shared" si="4"/>
+        <f>(L283-H283)</f>
         <v>0.46170121044347506</v>
       </c>
       <c r="N283">
@@ -18793,7 +18793,7 @@
         <v>0.52700092625785599</v>
       </c>
       <c r="M284">
-        <f t="shared" si="4"/>
+        <f>(L284-H284)</f>
         <v>0.46159292625785597</v>
       </c>
       <c r="N284">
@@ -18842,7 +18842,7 @@
         <v>0.52547010665241101</v>
       </c>
       <c r="M285">
-        <f t="shared" si="4"/>
+        <f>(L285-H285)</f>
         <v>0.45951710665241102</v>
       </c>
       <c r="N285">
@@ -18891,7 +18891,7 @@
         <v>0.51683739347700397</v>
       </c>
       <c r="M286">
-        <f t="shared" si="4"/>
+        <f>(L286-H286)</f>
         <v>0.45946539347700399</v>
       </c>
       <c r="N286">
@@ -18940,7 +18940,7 @@
         <v>0.50486702852389898</v>
       </c>
       <c r="M287">
-        <f t="shared" si="4"/>
+        <f>(L287-H287)</f>
         <v>0.45912302852389897</v>
       </c>
       <c r="N287">
@@ -18989,7 +18989,7 @@
         <v>0.514465429071019</v>
       </c>
       <c r="M288">
-        <f t="shared" si="4"/>
+        <f>(L288-H288)</f>
         <v>0.458826429071019</v>
       </c>
       <c r="N288">
@@ -19038,7 +19038,7 @@
         <v>0.52343956759821098</v>
       </c>
       <c r="M289">
-        <f t="shared" si="4"/>
+        <f>(L289-H289)</f>
         <v>0.45863256759821097</v>
       </c>
       <c r="N289">
@@ -19087,7 +19087,7 @@
         <v>0.50940110648589998</v>
       </c>
       <c r="M290">
-        <f t="shared" si="4"/>
+        <f>(L290-H290)</f>
         <v>0.4575211064859</v>
       </c>
       <c r="N290">
@@ -19136,7 +19136,7 @@
         <v>0.50505025546240001</v>
       </c>
       <c r="M291">
-        <f t="shared" si="4"/>
+        <f>(L291-H291)</f>
         <v>0.4562732554624</v>
       </c>
       <c r="N291">
@@ -19185,7 +19185,7 @@
         <v>0.53142004424676403</v>
       </c>
       <c r="M292">
-        <f t="shared" si="4"/>
+        <f>(L292-H292)</f>
         <v>0.45533404424676405</v>
       </c>
       <c r="N292">
@@ -19234,7 +19234,7 @@
         <v>0.53479317520437097</v>
       </c>
       <c r="M293">
-        <f t="shared" si="4"/>
+        <f>(L293-H293)</f>
         <v>0.45520617520437096</v>
       </c>
       <c r="N293">
@@ -19283,7 +19283,7 @@
         <v>0.52148232952441598</v>
       </c>
       <c r="M294">
-        <f t="shared" si="4"/>
+        <f>(L294-H294)</f>
         <v>0.455033329524416</v>
       </c>
       <c r="N294">
@@ -19332,7 +19332,7 @@
         <v>0.49865067020964399</v>
       </c>
       <c r="M295">
-        <f t="shared" si="4"/>
+        <f>(L295-H295)</f>
         <v>0.45489467020964397</v>
       </c>
       <c r="N295">
@@ -19381,7 +19381,7 @@
         <v>0.57759136813465595</v>
       </c>
       <c r="M296">
-        <f t="shared" si="4"/>
+        <f>(L296-H296)</f>
         <v>0.45452136813465593</v>
       </c>
       <c r="N296">
@@ -19430,7 +19430,7 @@
         <v>0.52882148684185604</v>
       </c>
       <c r="M297">
-        <f t="shared" si="4"/>
+        <f>(L297-H297)</f>
         <v>0.45449948684185604</v>
       </c>
       <c r="N297">
@@ -19479,7 +19479,7 @@
         <v>0.53122142273172401</v>
       </c>
       <c r="M298">
-        <f t="shared" si="4"/>
+        <f>(L298-H298)</f>
         <v>0.45406042273172403</v>
       </c>
       <c r="N298">
@@ -19528,7 +19528,7 @@
         <v>0.50644017569766397</v>
       </c>
       <c r="M299">
-        <f t="shared" si="4"/>
+        <f>(L299-H299)</f>
         <v>0.453983175697664</v>
       </c>
       <c r="N299">
@@ -19577,7 +19577,7 @@
         <v>0.51805999521037904</v>
       </c>
       <c r="M300">
-        <f t="shared" si="4"/>
+        <f>(L300-H300)</f>
         <v>0.45356899521037902</v>
       </c>
       <c r="N300">
@@ -19626,7 +19626,7 @@
         <v>0.506797665459499</v>
       </c>
       <c r="M301">
-        <f t="shared" si="4"/>
+        <f>(L301-H301)</f>
         <v>0.453401665459499</v>
       </c>
       <c r="N301">
@@ -19675,7 +19675,7 @@
         <v>0.49880385885790002</v>
       </c>
       <c r="M302">
-        <f t="shared" si="4"/>
+        <f>(L302-H302)</f>
         <v>0.45231085885790001</v>
       </c>
       <c r="N302">
@@ -19724,7 +19724,7 @@
         <v>0.51856908883177899</v>
       </c>
       <c r="M303">
-        <f t="shared" si="4"/>
+        <f>(L303-H303)</f>
         <v>0.45071008883177899</v>
       </c>
       <c r="N303">
@@ -19773,7 +19773,7 @@
         <v>0.53556105342909999</v>
       </c>
       <c r="M304">
-        <f t="shared" si="4"/>
+        <f>(L304-H304)</f>
         <v>0.45039905342909997</v>
       </c>
       <c r="N304">
@@ -19822,7 +19822,7 @@
         <v>0.50575459114053101</v>
       </c>
       <c r="M305">
-        <f t="shared" si="4"/>
+        <f>(L305-H305)</f>
         <v>0.45030959114053098</v>
       </c>
       <c r="N305">
@@ -19871,7 +19871,7 @@
         <v>0.49678587983797901</v>
       </c>
       <c r="M306">
-        <f t="shared" si="4"/>
+        <f>(L306-H306)</f>
         <v>0.44980087983797901</v>
       </c>
       <c r="N306">
@@ -19920,7 +19920,7 @@
         <v>0.49953187816308398</v>
       </c>
       <c r="M307">
-        <f t="shared" si="4"/>
+        <f>(L307-H307)</f>
         <v>0.44976787816308395</v>
       </c>
       <c r="N307">
@@ -19969,7 +19969,7 @@
         <v>0.529108752742939</v>
       </c>
       <c r="M308">
-        <f t="shared" si="4"/>
+        <f>(L308-H308)</f>
         <v>0.44928175274293902</v>
       </c>
       <c r="N308">
@@ -20018,7 +20018,7 @@
         <v>0.49228893582609101</v>
       </c>
       <c r="M309">
-        <f t="shared" si="4"/>
+        <f>(L309-H309)</f>
         <v>0.44896893582609099</v>
       </c>
       <c r="N309">
@@ -20067,7 +20067,7 @@
         <v>0.50727132278590004</v>
       </c>
       <c r="M310">
-        <f t="shared" si="4"/>
+        <f>(L310-H310)</f>
         <v>0.44671732278590004</v>
       </c>
       <c r="N310">
@@ -20116,7 +20116,7 @@
         <v>0.49371547118349102</v>
       </c>
       <c r="M311">
-        <f t="shared" si="4"/>
+        <f>(L311-H311)</f>
         <v>0.44655647118349101</v>
       </c>
       <c r="N311">
@@ -20165,7 +20165,7 @@
         <v>0.497808621168844</v>
       </c>
       <c r="M312">
-        <f t="shared" si="4"/>
+        <f>(L312-H312)</f>
         <v>0.446487621168844</v>
       </c>
       <c r="N312">
@@ -20214,7 +20214,7 @@
         <v>0.50680732937335604</v>
       </c>
       <c r="M313">
-        <f t="shared" si="4"/>
+        <f>(L313-H313)</f>
         <v>0.44572332937335601</v>
       </c>
       <c r="N313">
@@ -20263,7 +20263,7 @@
         <v>0.50457780129865903</v>
       </c>
       <c r="M314">
-        <f t="shared" si="4"/>
+        <f>(L314-H314)</f>
         <v>0.44522080129865904</v>
       </c>
       <c r="N314">
@@ -20312,7 +20312,7 @@
         <v>0.483309992950891</v>
       </c>
       <c r="M315">
-        <f t="shared" si="4"/>
+        <f>(L315-H315)</f>
         <v>0.445175992950891</v>
       </c>
       <c r="N315">
@@ -20361,7 +20361,7 @@
         <v>0.49685275078404401</v>
       </c>
       <c r="M316">
-        <f t="shared" si="4"/>
+        <f>(L316-H316)</f>
         <v>0.44454175078404401</v>
       </c>
       <c r="N316">
@@ -20410,7 +20410,7 @@
         <v>0.49211791300129898</v>
       </c>
       <c r="M317">
-        <f t="shared" si="4"/>
+        <f>(L317-H317)</f>
         <v>0.44419691300129899</v>
       </c>
       <c r="N317">
@@ -20459,7 +20459,7 @@
         <v>0.50777425988695601</v>
       </c>
       <c r="M318">
-        <f t="shared" si="4"/>
+        <f>(L318-H318)</f>
         <v>0.443874259886956</v>
       </c>
       <c r="N318">
@@ -20508,7 +20508,7 @@
         <v>0.505368583322371</v>
       </c>
       <c r="M319">
-        <f t="shared" si="4"/>
+        <f>(L319-H319)</f>
         <v>0.442974583322371</v>
       </c>
       <c r="N319">
@@ -20557,7 +20557,7 @@
         <v>0.48988828865940398</v>
       </c>
       <c r="M320">
-        <f t="shared" si="4"/>
+        <f>(L320-H320)</f>
         <v>0.44231228865940397</v>
       </c>
       <c r="N320">
@@ -20606,7 +20606,7 @@
         <v>0.50245012172589998</v>
       </c>
       <c r="M321">
-        <f t="shared" si="4"/>
+        <f>(L321-H321)</f>
         <v>0.44164112172589998</v>
       </c>
       <c r="N321">
@@ -20655,7 +20655,7 @@
         <v>0.48791029951727499</v>
       </c>
       <c r="M322">
-        <f t="shared" si="4"/>
+        <f>(L322-H322)</f>
         <v>0.44080029951727501</v>
       </c>
       <c r="N322">
@@ -20704,7 +20704,7 @@
         <v>0.49418199323220402</v>
       </c>
       <c r="M323">
-        <f t="shared" ref="M323:M386" si="5">(L323-H323)</f>
+        <f>(L323-H323)</f>
         <v>0.44010299323220403</v>
       </c>
       <c r="N323">
@@ -20753,7 +20753,7 @@
         <v>0.48163834025077901</v>
       </c>
       <c r="M324">
-        <f t="shared" si="5"/>
+        <f>(L324-H324)</f>
         <v>0.43980434025077902</v>
       </c>
       <c r="N324">
@@ -20802,7 +20802,7 @@
         <v>0.49459160129941898</v>
       </c>
       <c r="M325">
-        <f t="shared" si="5"/>
+        <f>(L325-H325)</f>
         <v>0.43951360129941897</v>
       </c>
       <c r="N325">
@@ -20851,7 +20851,7 @@
         <v>0.48779687232381103</v>
       </c>
       <c r="M326">
-        <f t="shared" si="5"/>
+        <f>(L326-H326)</f>
         <v>0.43939887232381103</v>
       </c>
       <c r="N326">
@@ -20900,7 +20900,7 @@
         <v>0.49482983626884403</v>
       </c>
       <c r="M327">
-        <f t="shared" si="5"/>
+        <f>(L327-H327)</f>
         <v>0.43938983626884404</v>
       </c>
       <c r="N327">
@@ -20949,7 +20949,7 @@
         <v>0.49571665613625099</v>
       </c>
       <c r="M328">
-        <f t="shared" si="5"/>
+        <f>(L328-H328)</f>
         <v>0.43811765613625098</v>
       </c>
       <c r="N328">
@@ -20998,7 +20998,7 @@
         <v>0.51804042045141097</v>
       </c>
       <c r="M329">
-        <f t="shared" si="5"/>
+        <f>(L329-H329)</f>
         <v>0.43595742045141095</v>
       </c>
       <c r="N329">
@@ -21047,7 +21047,7 @@
         <v>0.51202199397759995</v>
       </c>
       <c r="M330">
-        <f t="shared" si="5"/>
+        <f>(L330-H330)</f>
         <v>0.43562299397759996</v>
       </c>
       <c r="N330">
@@ -21096,7 +21096,7 @@
         <v>0.48940519132449101</v>
       </c>
       <c r="M331">
-        <f t="shared" si="5"/>
+        <f>(L331-H331)</f>
         <v>0.43507119132449101</v>
       </c>
       <c r="N331">
@@ -21145,7 +21145,7 @@
         <v>0.49656619784670403</v>
       </c>
       <c r="M332">
-        <f t="shared" si="5"/>
+        <f>(L332-H332)</f>
         <v>0.43444219784670401</v>
       </c>
       <c r="N332">
@@ -21194,7 +21194,7 @@
         <v>0.49305896658385601</v>
       </c>
       <c r="M333">
-        <f t="shared" si="5"/>
+        <f>(L333-H333)</f>
         <v>0.433770966583856</v>
       </c>
       <c r="N333">
@@ -21243,7 +21243,7 @@
         <v>0.49312554533327502</v>
       </c>
       <c r="M334">
-        <f t="shared" si="5"/>
+        <f>(L334-H334)</f>
         <v>0.43324554533327503</v>
       </c>
       <c r="N334">
@@ -21292,7 +21292,7 @@
         <v>0.50714563361589104</v>
       </c>
       <c r="M335">
-        <f t="shared" si="5"/>
+        <f>(L335-H335)</f>
         <v>0.43231663361589101</v>
       </c>
       <c r="N335">
@@ -21341,7 +21341,7 @@
         <v>0.47376741165894398</v>
       </c>
       <c r="M336">
-        <f t="shared" si="5"/>
+        <f>(L336-H336)</f>
         <v>0.43202941165894398</v>
       </c>
       <c r="N336">
@@ -21390,7 +21390,7 @@
         <v>0.48100999887769602</v>
       </c>
       <c r="M337">
-        <f t="shared" si="5"/>
+        <f>(L337-H337)</f>
         <v>0.43186899887769603</v>
       </c>
       <c r="N337">
@@ -21439,7 +21439,7 @@
         <v>0.50644017569766397</v>
       </c>
       <c r="M338">
-        <f t="shared" si="5"/>
+        <f>(L338-H338)</f>
         <v>0.43180817569766394</v>
       </c>
       <c r="N338">
@@ -21488,7 +21488,7 @@
         <v>0.49349657984196399</v>
       </c>
       <c r="M339">
-        <f t="shared" si="5"/>
+        <f>(L339-H339)</f>
         <v>0.43148757984196401</v>
       </c>
       <c r="N339">
@@ -21537,7 +21537,7 @@
         <v>0.47275523869041097</v>
       </c>
       <c r="M340">
-        <f t="shared" si="5"/>
+        <f>(L340-H340)</f>
         <v>0.43097223869041096</v>
       </c>
       <c r="N340">
@@ -21586,7 +21586,7 @@
         <v>0.50985677558397102</v>
       </c>
       <c r="M341">
-        <f t="shared" si="5"/>
+        <f>(L341-H341)</f>
         <v>0.42975577558397104</v>
       </c>
       <c r="N341">
@@ -21635,7 +21635,7 @@
         <v>0.49825824904521099</v>
       </c>
       <c r="M342">
-        <f t="shared" si="5"/>
+        <f>(L342-H342)</f>
         <v>0.42917324904521098</v>
       </c>
       <c r="N342">
@@ -21684,7 +21684,7 @@
         <v>0.49626064728414399</v>
       </c>
       <c r="M343">
-        <f t="shared" si="5"/>
+        <f>(L343-H343)</f>
         <v>0.42837164728414401</v>
       </c>
       <c r="N343">
@@ -21733,7 +21733,7 @@
         <v>0.476345338427131</v>
       </c>
       <c r="M344">
-        <f t="shared" si="5"/>
+        <f>(L344-H344)</f>
         <v>0.428051338427131</v>
       </c>
       <c r="N344">
@@ -21782,7 +21782,7 @@
         <v>0.47787548056221102</v>
       </c>
       <c r="M345">
-        <f t="shared" si="5"/>
+        <f>(L345-H345)</f>
         <v>0.427677480562211</v>
       </c>
       <c r="N345">
@@ -21831,7 +21831,7 @@
         <v>0.48739999821025898</v>
       </c>
       <c r="M346">
-        <f t="shared" si="5"/>
+        <f>(L346-H346)</f>
         <v>0.42760999821025897</v>
       </c>
       <c r="N346">
@@ -21880,7 +21880,7 @@
         <v>0.49892834475849102</v>
       </c>
       <c r="M347">
-        <f t="shared" si="5"/>
+        <f>(L347-H347)</f>
         <v>0.42660834475849102</v>
       </c>
       <c r="N347">
@@ -21929,7 +21929,7 @@
         <v>0.50023174046749896</v>
       </c>
       <c r="M348">
-        <f t="shared" si="5"/>
+        <f>(L348-H348)</f>
         <v>0.42598474046749896</v>
       </c>
       <c r="N348">
@@ -21978,7 +21978,7 @@
         <v>0.47266244230605098</v>
       </c>
       <c r="M349">
-        <f t="shared" si="5"/>
+        <f>(L349-H349)</f>
         <v>0.42581744230605101</v>
       </c>
       <c r="N349">
@@ -22027,7 +22027,7 @@
         <v>0.49171899425853099</v>
       </c>
       <c r="M350">
-        <f t="shared" si="5"/>
+        <f>(L350-H350)</f>
         <v>0.42565999425853096</v>
       </c>
       <c r="N350">
@@ -22076,7 +22076,7 @@
         <v>0.467528981293996</v>
       </c>
       <c r="M351">
-        <f t="shared" si="5"/>
+        <f>(L351-H351)</f>
         <v>0.424983981293996</v>
       </c>
       <c r="N351">
@@ -22125,7 +22125,7 @@
         <v>0.47290373511105099</v>
       </c>
       <c r="M352">
-        <f t="shared" si="5"/>
+        <f>(L352-H352)</f>
         <v>0.42446373511105101</v>
       </c>
       <c r="N352">
@@ -22174,7 +22174,7 @@
         <v>0.48280250493069099</v>
       </c>
       <c r="M353">
-        <f t="shared" si="5"/>
+        <f>(L353-H353)</f>
         <v>0.42441550493069097</v>
       </c>
       <c r="N353">
@@ -22223,7 +22223,7 @@
         <v>0.48686168455956402</v>
       </c>
       <c r="M354">
-        <f t="shared" si="5"/>
+        <f>(L354-H354)</f>
         <v>0.42422168455956399</v>
       </c>
       <c r="N354">
@@ -22272,7 +22272,7 @@
         <v>0.50901348875709995</v>
       </c>
       <c r="M355">
-        <f t="shared" si="5"/>
+        <f>(L355-H355)</f>
         <v>0.42232248875709993</v>
       </c>
       <c r="N355">
@@ -22321,7 +22321,7 @@
         <v>0.48070069345657901</v>
       </c>
       <c r="M356">
-        <f t="shared" si="5"/>
+        <f>(L356-H356)</f>
         <v>0.42148469345657902</v>
       </c>
       <c r="N356">
@@ -22370,7 +22370,7 @@
         <v>0.47256037861380401</v>
       </c>
       <c r="M357">
-        <f t="shared" si="5"/>
+        <f>(L357-H357)</f>
         <v>0.42124037861380403</v>
       </c>
       <c r="N357">
@@ -22419,7 +22419,7 @@
         <v>0.46765806971166402</v>
       </c>
       <c r="M358">
-        <f t="shared" si="5"/>
+        <f>(L358-H358)</f>
         <v>0.42014506971166399</v>
       </c>
       <c r="N358">
@@ -22468,7 +22468,7 @@
         <v>0.54550024159885901</v>
       </c>
       <c r="M359">
-        <f t="shared" si="5"/>
+        <f>(L359-H359)</f>
         <v>0.41944124159885898</v>
       </c>
       <c r="N359">
@@ -22517,7 +22517,7 @@
         <v>0.472810921645411</v>
       </c>
       <c r="M360">
-        <f t="shared" si="5"/>
+        <f>(L360-H360)</f>
         <v>0.418920921645411</v>
       </c>
       <c r="N360">
@@ -22566,7 +22566,7 @@
         <v>0.4865407503436</v>
       </c>
       <c r="M361">
-        <f t="shared" si="5"/>
+        <f>(L361-H361)</f>
         <v>0.41891775034360001</v>
       </c>
       <c r="N361">
@@ -22615,7 +22615,7 @@
         <v>0.472950145847296</v>
       </c>
       <c r="M362">
-        <f t="shared" si="5"/>
+        <f>(L362-H362)</f>
         <v>0.41880614584729603</v>
       </c>
       <c r="N362">
@@ -22664,7 +22664,7 @@
         <v>0.47345155186423599</v>
       </c>
       <c r="M363">
-        <f t="shared" si="5"/>
+        <f>(L363-H363)</f>
         <v>0.41870155186423597</v>
       </c>
       <c r="N363">
@@ -22713,7 +22713,7 @@
         <v>0.47239339316305601</v>
       </c>
       <c r="M364">
-        <f t="shared" si="5"/>
+        <f>(L364-H364)</f>
         <v>0.41759539316305599</v>
       </c>
       <c r="N364">
@@ -22762,7 +22762,7 @@
         <v>0.56553875576593604</v>
       </c>
       <c r="M365">
-        <f t="shared" si="5"/>
+        <f>(L365-H365)</f>
         <v>0.41560575576593606</v>
       </c>
       <c r="N365">
@@ -22811,7 +22811,7 @@
         <v>0.50607317618052405</v>
       </c>
       <c r="M366">
-        <f t="shared" si="5"/>
+        <f>(L366-H366)</f>
         <v>0.41458617618052407</v>
       </c>
       <c r="N366">
@@ -22860,7 +22860,7 @@
         <v>0.55536090538452398</v>
       </c>
       <c r="M367">
-        <f t="shared" si="5"/>
+        <f>(L367-H367)</f>
         <v>0.41400890538452395</v>
       </c>
       <c r="N367">
@@ -22909,7 +22909,7 @@
         <v>0.47395326918750402</v>
       </c>
       <c r="M368">
-        <f t="shared" si="5"/>
+        <f>(L368-H368)</f>
         <v>0.41360926918750401</v>
       </c>
       <c r="N368">
@@ -22958,7 +22958,7 @@
         <v>0.468137724174016</v>
       </c>
       <c r="M369">
-        <f t="shared" si="5"/>
+        <f>(L369-H369)</f>
         <v>0.41358472417401598</v>
       </c>
       <c r="N369">
@@ -23007,7 +23007,7 @@
         <v>0.480953752881004</v>
       </c>
       <c r="M370">
-        <f t="shared" si="5"/>
+        <f>(L370-H370)</f>
         <v>0.41329475288100403</v>
       </c>
       <c r="N370">
@@ -23056,7 +23056,7 @@
         <v>0.458016285770944</v>
       </c>
       <c r="M371">
-        <f t="shared" si="5"/>
+        <f>(L371-H371)</f>
         <v>0.41248428577094398</v>
       </c>
       <c r="N371">
@@ -23105,7 +23105,7 @@
         <v>0.47684884864425098</v>
       </c>
       <c r="M372">
-        <f t="shared" si="5"/>
+        <f>(L372-H372)</f>
         <v>0.411702848644251</v>
       </c>
       <c r="N372">
@@ -23154,7 +23154,7 @@
         <v>0.48395890289316401</v>
       </c>
       <c r="M373">
-        <f t="shared" si="5"/>
+        <f>(L373-H373)</f>
         <v>0.411232902893164</v>
       </c>
       <c r="N373">
@@ -23203,7 +23203,7 @@
         <v>0.47218007320127497</v>
       </c>
       <c r="M374">
-        <f t="shared" si="5"/>
+        <f>(L374-H374)</f>
         <v>0.40975207320127499</v>
       </c>
       <c r="N374">
@@ -23252,7 +23252,7 @@
         <v>0.47580487790687498</v>
       </c>
       <c r="M375">
-        <f t="shared" si="5"/>
+        <f>(L375-H375)</f>
         <v>0.40846187790687499</v>
       </c>
       <c r="N375">
@@ -23301,7 +23301,7 @@
         <v>0.45957549232127498</v>
       </c>
       <c r="M376">
-        <f t="shared" si="5"/>
+        <f>(L376-H376)</f>
         <v>0.40813249232127496</v>
       </c>
       <c r="N376">
@@ -23350,7 +23350,7 @@
         <v>0.45920136296580399</v>
       </c>
       <c r="M377">
-        <f t="shared" si="5"/>
+        <f>(L377-H377)</f>
         <v>0.40749236296580399</v>
       </c>
       <c r="N377">
@@ -23399,7 +23399,7 @@
         <v>0.47931493542397902</v>
       </c>
       <c r="M378">
-        <f t="shared" si="5"/>
+        <f>(L378-H378)</f>
         <v>0.40646293542397904</v>
       </c>
       <c r="N378">
@@ -23448,7 +23448,7 @@
         <v>0.44438334610932401</v>
       </c>
       <c r="M379">
-        <f t="shared" si="5"/>
+        <f>(L379-H379)</f>
         <v>0.404741346109324</v>
       </c>
       <c r="N379">
@@ -23497,7 +23497,7 @@
         <v>0.462263530850899</v>
       </c>
       <c r="M380">
-        <f t="shared" si="5"/>
+        <f>(L380-H380)</f>
         <v>0.40467753085089897</v>
       </c>
       <c r="N380">
@@ -23546,7 +23546,7 @@
         <v>0.46291406632960003</v>
       </c>
       <c r="M381">
-        <f t="shared" si="5"/>
+        <f>(L381-H381)</f>
         <v>0.4042220663296</v>
       </c>
       <c r="N381">
@@ -23595,7 +23595,7 @@
         <v>0.474148465551811</v>
       </c>
       <c r="M382">
-        <f t="shared" si="5"/>
+        <f>(L382-H382)</f>
         <v>0.40374746555181101</v>
       </c>
       <c r="N382">
@@ -23644,7 +23644,7 @@
         <v>0.45986762041401102</v>
       </c>
       <c r="M383">
-        <f t="shared" si="5"/>
+        <f>(L383-H383)</f>
         <v>0.40323562041401101</v>
       </c>
       <c r="N383">
@@ -23693,7 +23693,7 @@
         <v>0.44985237462057098</v>
       </c>
       <c r="M384">
-        <f t="shared" si="5"/>
+        <f>(L384-H384)</f>
         <v>0.402717374620571</v>
       </c>
       <c r="N384">
@@ -23742,7 +23742,7 @@
         <v>0.469661615914651</v>
       </c>
       <c r="M385">
-        <f t="shared" si="5"/>
+        <f>(L385-H385)</f>
         <v>0.40254161591465099</v>
       </c>
       <c r="N385">
@@ -23791,7 +23791,7 @@
         <v>0.48596526593449901</v>
       </c>
       <c r="M386">
-        <f t="shared" si="5"/>
+        <f>(L386-H386)</f>
         <v>0.40137826593449899</v>
       </c>
       <c r="N386">
@@ -23840,7 +23840,7 @@
         <v>0.47654111096436402</v>
       </c>
       <c r="M387">
-        <f t="shared" ref="M387:M450" si="6">(L387-H387)</f>
+        <f>(L387-H387)</f>
         <v>0.40097311096436405</v>
       </c>
       <c r="N387">
@@ -23889,7 +23889,7 @@
         <v>0.469088661170179</v>
       </c>
       <c r="M388">
-        <f t="shared" si="6"/>
+        <f>(L388-H388)</f>
         <v>0.39930866117017899</v>
       </c>
       <c r="N388">
@@ -23938,7 +23938,7 @@
         <v>0.47541373413573101</v>
       </c>
       <c r="M389">
-        <f t="shared" si="6"/>
+        <f>(L389-H389)</f>
         <v>0.39560073413573105</v>
       </c>
       <c r="N389">
@@ -23987,7 +23987,7 @@
         <v>0.445448894323411</v>
       </c>
       <c r="M390">
-        <f t="shared" si="6"/>
+        <f>(L390-H390)</f>
         <v>0.39399689432341101</v>
       </c>
       <c r="N390">
@@ -24036,7 +24036,7 @@
         <v>0.45956636507988402</v>
       </c>
       <c r="M391">
-        <f t="shared" si="6"/>
+        <f>(L391-H391)</f>
         <v>0.39397436507988404</v>
       </c>
       <c r="N391">
@@ -24085,7 +24085,7 @@
         <v>0.44477715417223601</v>
       </c>
       <c r="M392">
-        <f t="shared" si="6"/>
+        <f>(L392-H392)</f>
         <v>0.39275215417223602</v>
       </c>
       <c r="N392">
@@ -24134,7 +24134,7 @@
         <v>0.44063467164468401</v>
       </c>
       <c r="M393">
-        <f t="shared" si="6"/>
+        <f>(L393-H393)</f>
         <v>0.39270867164468398</v>
       </c>
       <c r="N393">
@@ -24183,7 +24183,7 @@
         <v>0.46547560834609902</v>
       </c>
       <c r="M394">
-        <f t="shared" si="6"/>
+        <f>(L394-H394)</f>
         <v>0.39196460834609903</v>
       </c>
       <c r="N394">
@@ -24232,7 +24232,7 @@
         <v>0.46475864144401902</v>
       </c>
       <c r="M395">
-        <f t="shared" si="6"/>
+        <f>(L395-H395)</f>
         <v>0.39056664144401904</v>
       </c>
       <c r="N395">
@@ -24281,7 +24281,7 @@
         <v>0.47317295453305602</v>
       </c>
       <c r="M396">
-        <f t="shared" si="6"/>
+        <f>(L396-H396)</f>
         <v>0.39050295453305606</v>
       </c>
       <c r="N396">
@@ -24330,7 +24330,7 @@
         <v>0.44239063348405899</v>
       </c>
       <c r="M397">
-        <f t="shared" si="6"/>
+        <f>(L397-H397)</f>
         <v>0.389415633484059</v>
       </c>
       <c r="N397">
@@ -24379,7 +24379,7 @@
         <v>0.45946597247061099</v>
       </c>
       <c r="M398">
-        <f t="shared" si="6"/>
+        <f>(L398-H398)</f>
         <v>0.38916497247061099</v>
       </c>
       <c r="N398">
@@ -24428,7 +24428,7 @@
         <v>0.445941885427456</v>
       </c>
       <c r="M399">
-        <f t="shared" si="6"/>
+        <f>(L399-H399)</f>
         <v>0.389134885427456</v>
       </c>
       <c r="N399">
@@ -24477,7 +24477,7 @@
         <v>0.54062285703270396</v>
       </c>
       <c r="M400">
-        <f t="shared" si="6"/>
+        <f>(L400-H400)</f>
         <v>0.38895085703270393</v>
       </c>
       <c r="N400">
@@ -24526,7 +24526,7 @@
         <v>0.45116036019217598</v>
       </c>
       <c r="M401">
-        <f t="shared" si="6"/>
+        <f>(L401-H401)</f>
         <v>0.388734360192176</v>
       </c>
       <c r="N401">
@@ -24575,7 +24575,7 @@
         <v>0.45805272278161602</v>
       </c>
       <c r="M402">
-        <f t="shared" si="6"/>
+        <f>(L402-H402)</f>
         <v>0.38708572278161602</v>
       </c>
       <c r="N402">
@@ -24624,7 +24624,7 @@
         <v>0.45207276605185898</v>
       </c>
       <c r="M403">
-        <f t="shared" si="6"/>
+        <f>(L403-H403)</f>
         <v>0.38699676605185895</v>
       </c>
       <c r="N403">
@@ -24673,7 +24673,7 @@
         <v>0.45724240310629899</v>
       </c>
       <c r="M404">
-        <f t="shared" si="6"/>
+        <f>(L404-H404)</f>
         <v>0.38597940310629897</v>
       </c>
       <c r="N404">
@@ -24722,7 +24722,7 @@
         <v>0.44975323972729597</v>
       </c>
       <c r="M405">
-        <f t="shared" si="6"/>
+        <f>(L405-H405)</f>
         <v>0.385779239727296</v>
       </c>
       <c r="N405">
@@ -24771,7 +24771,7 @@
         <v>0.484533000195571</v>
       </c>
       <c r="M406">
-        <f t="shared" si="6"/>
+        <f>(L406-H406)</f>
         <v>0.38547900019557102</v>
       </c>
       <c r="N406">
@@ -24820,7 +24820,7 @@
         <v>0.429150987079084</v>
       </c>
       <c r="M407">
-        <f t="shared" si="6"/>
+        <f>(L407-H407)</f>
         <v>0.38529098707908399</v>
       </c>
       <c r="N407">
@@ -24869,7 +24869,7 @@
         <v>0.43515300670686402</v>
       </c>
       <c r="M408">
-        <f t="shared" si="6"/>
+        <f>(L408-H408)</f>
         <v>0.38306400670686402</v>
       </c>
       <c r="N408">
@@ -24918,7 +24918,7 @@
         <v>0.42489547625769097</v>
       </c>
       <c r="M409">
-        <f t="shared" si="6"/>
+        <f>(L409-H409)</f>
         <v>0.378766476257691</v>
       </c>
       <c r="N409">
@@ -24967,7 +24967,7 @@
         <v>0.42873918708513098</v>
       </c>
       <c r="M410">
-        <f t="shared" si="6"/>
+        <f>(L410-H410)</f>
         <v>0.37777218708513099</v>
       </c>
       <c r="N410">
@@ -25016,7 +25016,7 @@
         <v>0.429142222921651</v>
       </c>
       <c r="M411">
-        <f t="shared" si="6"/>
+        <f>(L411-H411)</f>
         <v>0.37731122292165098</v>
       </c>
       <c r="N411">
@@ -25065,7 +25065,7 @@
         <v>0.43370517114649598</v>
       </c>
       <c r="M412">
-        <f t="shared" si="6"/>
+        <f>(L412-H412)</f>
         <v>0.37620717114649599</v>
       </c>
       <c r="N412">
@@ -25114,7 +25114,7 @@
         <v>0.43333484582589998</v>
       </c>
       <c r="M413">
-        <f t="shared" si="6"/>
+        <f>(L413-H413)</f>
         <v>0.3757348458259</v>
       </c>
       <c r="N413">
@@ -25163,7 +25163,7 @@
         <v>0.44432966102353599</v>
       </c>
       <c r="M414">
-        <f t="shared" si="6"/>
+        <f>(L414-H414)</f>
         <v>0.37563566102353596</v>
       </c>
       <c r="N414">
@@ -25212,7 +25212,7 @@
         <v>0.42442517204889102</v>
       </c>
       <c r="M415">
-        <f t="shared" si="6"/>
+        <f>(L415-H415)</f>
         <v>0.37340217204889103</v>
       </c>
       <c r="N415">
@@ -25261,7 +25261,7 @@
         <v>0.445941885427456</v>
       </c>
       <c r="M416">
-        <f t="shared" si="6"/>
+        <f>(L416-H416)</f>
         <v>0.37308588542745602</v>
       </c>
       <c r="N416">
@@ -25310,7 +25310,7 @@
         <v>0.430264902802099</v>
       </c>
       <c r="M417">
-        <f t="shared" si="6"/>
+        <f>(L417-H417)</f>
         <v>0.372428902802099</v>
       </c>
       <c r="N417">
@@ -25359,7 +25359,7 @@
         <v>0.44200699899769602</v>
       </c>
       <c r="M418">
-        <f t="shared" si="6"/>
+        <f>(L418-H418)</f>
         <v>0.37090399899769599</v>
       </c>
       <c r="N418">
@@ -25408,7 +25408,7 @@
         <v>0.44272982360977903</v>
       </c>
       <c r="M419">
-        <f t="shared" si="6"/>
+        <f>(L419-H419)</f>
         <v>0.37068982360977903</v>
       </c>
       <c r="N419">
@@ -25457,7 +25457,7 @@
         <v>0.426413018582179</v>
       </c>
       <c r="M420">
-        <f t="shared" si="6"/>
+        <f>(L420-H420)</f>
         <v>0.37031201858217899</v>
       </c>
       <c r="N420">
@@ -25506,7 +25506,7 @@
         <v>0.417097715548291</v>
       </c>
       <c r="M421">
-        <f t="shared" si="6"/>
+        <f>(L421-H421)</f>
         <v>0.36871271554829099</v>
       </c>
       <c r="N421">
@@ -25555,7 +25555,7 @@
         <v>0.422243214841036</v>
       </c>
       <c r="M422">
-        <f t="shared" si="6"/>
+        <f>(L422-H422)</f>
         <v>0.36798921484103597</v>
       </c>
       <c r="N422">
@@ -25604,7 +25604,7 @@
         <v>0.41935880771245898</v>
       </c>
       <c r="M423">
-        <f t="shared" si="6"/>
+        <f>(L423-H423)</f>
         <v>0.36378680771245897</v>
       </c>
       <c r="N423">
@@ -25653,7 +25653,7 @@
         <v>0.40850942942430402</v>
       </c>
       <c r="M424">
-        <f t="shared" si="6"/>
+        <f>(L424-H424)</f>
         <v>0.36177042942430404</v>
       </c>
       <c r="N424">
@@ -25702,7 +25702,7 @@
         <v>0.4473060130864</v>
       </c>
       <c r="M425">
-        <f t="shared" si="6"/>
+        <f>(L425-H425)</f>
         <v>0.35907201308640002</v>
       </c>
       <c r="N425">
@@ -25751,7 +25751,7 @@
         <v>0.42108976448485902</v>
       </c>
       <c r="M426">
-        <f t="shared" si="6"/>
+        <f>(L426-H426)</f>
         <v>0.356405764484859</v>
       </c>
       <c r="N426">
@@ -25800,7 +25800,7 @@
         <v>0.407310713306131</v>
       </c>
       <c r="M427">
-        <f t="shared" si="6"/>
+        <f>(L427-H427)</f>
         <v>0.35325471330613101</v>
       </c>
       <c r="N427">
@@ -25849,7 +25849,7 @@
         <v>0.41979114656305899</v>
       </c>
       <c r="M428">
-        <f t="shared" si="6"/>
+        <f>(L428-H428)</f>
         <v>0.35145014656305901</v>
       </c>
       <c r="N428">
@@ -25898,7 +25898,7 @@
         <v>0.39482316215917901</v>
       </c>
       <c r="M429">
-        <f t="shared" si="6"/>
+        <f>(L429-H429)</f>
         <v>0.35057016215917902</v>
       </c>
       <c r="N429">
@@ -25947,7 +25947,7 @@
         <v>0.39722823593025097</v>
       </c>
       <c r="M430">
-        <f t="shared" si="6"/>
+        <f>(L430-H430)</f>
         <v>0.34951323593025097</v>
       </c>
       <c r="N430">
@@ -25996,7 +25996,7 @@
         <v>0.4654848044464</v>
       </c>
       <c r="M431">
-        <f t="shared" si="6"/>
+        <f>(L431-H431)</f>
         <v>0.34838180444639999</v>
       </c>
       <c r="N431">
@@ -26045,7 +26045,7 @@
         <v>0.39254322142187498</v>
       </c>
       <c r="M432">
-        <f t="shared" si="6"/>
+        <f>(L432-H432)</f>
         <v>0.34686222142187495</v>
       </c>
       <c r="N432">
@@ -26094,7 +26094,7 @@
         <v>0.395323488970099</v>
       </c>
       <c r="M433">
-        <f t="shared" si="6"/>
+        <f>(L433-H433)</f>
         <v>0.346278488970099</v>
       </c>
       <c r="N433">
@@ -26143,7 +26143,7 @@
         <v>0.40744663107217899</v>
       </c>
       <c r="M434">
-        <f t="shared" si="6"/>
+        <f>(L434-H434)</f>
         <v>0.345763631072179</v>
       </c>
       <c r="N434">
@@ -26192,7 +26192,7 @@
         <v>0.40251177248742398</v>
       </c>
       <c r="M435">
-        <f t="shared" si="6"/>
+        <f>(L435-H435)</f>
         <v>0.34428877248742396</v>
       </c>
       <c r="N435">
@@ -26241,7 +26241,7 @@
         <v>0.42233869754313103</v>
       </c>
       <c r="M436">
-        <f t="shared" si="6"/>
+        <f>(L436-H436)</f>
         <v>0.34373769754313099</v>
       </c>
       <c r="N436">
@@ -26290,7 +26290,7 @@
         <v>0.39507327752353899</v>
       </c>
       <c r="M437">
-        <f t="shared" si="6"/>
+        <f>(L437-H437)</f>
         <v>0.34244027752353901</v>
       </c>
       <c r="N437">
@@ -26339,7 +26339,7 @@
         <v>0.44025194150533897</v>
       </c>
       <c r="M438">
-        <f t="shared" si="6"/>
+        <f>(L438-H438)</f>
         <v>0.34082194150533895</v>
       </c>
       <c r="N438">
@@ -26388,7 +26388,7 @@
         <v>0.39539022824973102</v>
       </c>
       <c r="M439">
-        <f t="shared" si="6"/>
+        <f>(L439-H439)</f>
         <v>0.33696822824973105</v>
       </c>
       <c r="N439">
@@ -26437,7 +26437,7 @@
         <v>0.39711111786009101</v>
       </c>
       <c r="M440">
-        <f t="shared" si="6"/>
+        <f>(L440-H440)</f>
         <v>0.33503811786009102</v>
       </c>
       <c r="N440">
@@ -26486,7 +26486,7 @@
         <v>0.467528981293996</v>
       </c>
       <c r="M441">
-        <f t="shared" si="6"/>
+        <f>(L441-H441)</f>
         <v>0.33147298129399599</v>
       </c>
       <c r="N441">
@@ -26535,7 +26535,7 @@
         <v>0.37235225676047501</v>
       </c>
       <c r="M442">
-        <f t="shared" si="6"/>
+        <f>(L442-H442)</f>
         <v>0.330737256760475</v>
       </c>
       <c r="N442">
@@ -26584,7 +26584,7 @@
         <v>0.39206993428249598</v>
       </c>
       <c r="M443">
-        <f t="shared" si="6"/>
+        <f>(L443-H443)</f>
         <v>0.32825293428249597</v>
       </c>
       <c r="N443">
@@ -26633,7 +26633,7 @@
         <v>0.37851173767593099</v>
       </c>
       <c r="M444">
-        <f t="shared" si="6"/>
+        <f>(L444-H444)</f>
         <v>0.326532737675931</v>
       </c>
       <c r="N444">
@@ -26682,7 +26682,7 @@
         <v>0.39514833086887602</v>
       </c>
       <c r="M445">
-        <f t="shared" si="6"/>
+        <f>(L445-H445)</f>
         <v>0.32639233086887603</v>
       </c>
       <c r="N445">
@@ -26731,7 +26731,7 @@
         <v>0.37376135235309998</v>
       </c>
       <c r="M446">
-        <f t="shared" si="6"/>
+        <f>(L446-H446)</f>
         <v>0.3232383523531</v>
       </c>
       <c r="N446">
@@ -26780,7 +26780,7 @@
         <v>0.39216124338733899</v>
       </c>
       <c r="M447">
-        <f t="shared" si="6"/>
+        <f>(L447-H447)</f>
         <v>0.32051224338733897</v>
       </c>
       <c r="N447">
@@ -26829,7 +26829,7 @@
         <v>0.399121751482651</v>
       </c>
       <c r="M448">
-        <f t="shared" si="6"/>
+        <f>(L448-H448)</f>
         <v>0.31908075148265103</v>
       </c>
       <c r="N448">
@@ -26878,7 +26878,7 @@
         <v>0.39022163512547497</v>
       </c>
       <c r="M449">
-        <f t="shared" si="6"/>
+        <f>(L449-H449)</f>
         <v>0.31898963512547496</v>
       </c>
       <c r="N449">
@@ -26927,7 +26927,7 @@
         <v>0.36800084552017598</v>
       </c>
       <c r="M450">
-        <f t="shared" si="6"/>
+        <f>(L450-H450)</f>
         <v>0.31857184552017598</v>
       </c>
       <c r="N450">
@@ -26976,7 +26976,7 @@
         <v>0.35753056599745903</v>
       </c>
       <c r="M451">
-        <f t="shared" ref="M451:M514" si="7">(L451-H451)</f>
+        <f>(L451-H451)</f>
         <v>0.30918556599745906</v>
       </c>
       <c r="N451">
@@ -27025,7 +27025,7 @@
         <v>0.35723259300037902</v>
       </c>
       <c r="M452">
-        <f t="shared" si="7"/>
+        <f>(L452-H452)</f>
         <v>0.306374593000379</v>
       </c>
       <c r="N452">
@@ -27074,7 +27074,7 @@
         <v>0.37351150284997903</v>
       </c>
       <c r="M453">
-        <f t="shared" si="7"/>
+        <f>(L453-H453)</f>
         <v>0.30169350284997903</v>
       </c>
       <c r="N453">
@@ -27123,7 +27123,7 @@
         <v>0.37314900064356399</v>
       </c>
       <c r="M454">
-        <f t="shared" si="7"/>
+        <f>(L454-H454)</f>
         <v>0.30075800064356401</v>
       </c>
       <c r="N454">
@@ -27172,7 +27172,7 @@
         <v>0.365379668894731</v>
       </c>
       <c r="M455">
-        <f t="shared" si="7"/>
+        <f>(L455-H455)</f>
         <v>0.29978366889473101</v>
       </c>
       <c r="N455">
@@ -27221,7 +27221,7 @@
         <v>0.346477463665324</v>
       </c>
       <c r="M456">
-        <f t="shared" si="7"/>
+        <f>(L456-H456)</f>
         <v>0.29505646366532401</v>
       </c>
       <c r="N456">
@@ -27270,7 +27270,7 @@
         <v>0.35400403953847598</v>
       </c>
       <c r="M457">
-        <f t="shared" si="7"/>
+        <f>(L457-H457)</f>
         <v>0.29292603953847596</v>
       </c>
       <c r="N457">
@@ -27319,7 +27319,7 @@
         <v>0.35850397121265098</v>
       </c>
       <c r="M458">
-        <f t="shared" si="7"/>
+        <f>(L458-H458)</f>
         <v>0.29080797121265101</v>
       </c>
       <c r="N458">
@@ -27368,7 +27368,7 @@
         <v>0.342209855366299</v>
       </c>
       <c r="M459">
-        <f t="shared" si="7"/>
+        <f>(L459-H459)</f>
         <v>0.290178855366299</v>
       </c>
       <c r="N459">
@@ -27417,7 +27417,7 @@
         <v>0.33339848121347498</v>
       </c>
       <c r="M460">
-        <f t="shared" si="7"/>
+        <f>(L460-H460)</f>
         <v>0.28936648121347497</v>
       </c>
       <c r="N460">
@@ -27466,7 +27466,7 @@
         <v>0.33011285484324399</v>
       </c>
       <c r="M461">
-        <f t="shared" si="7"/>
+        <f>(L461-H461)</f>
         <v>0.286029854843244</v>
       </c>
       <c r="N461">
@@ -27515,7 +27515,7 @@
         <v>0.35228389080213102</v>
       </c>
       <c r="M462">
-        <f t="shared" si="7"/>
+        <f>(L462-H462)</f>
         <v>0.28467389080213101</v>
       </c>
       <c r="N462">
@@ -27564,7 +27564,7 @@
         <v>0.34751678986537898</v>
       </c>
       <c r="M463">
-        <f t="shared" si="7"/>
+        <f>(L463-H463)</f>
         <v>0.28365178986537898</v>
       </c>
       <c r="N463">
@@ -27613,7 +27613,7 @@
         <v>0.34228618112641901</v>
       </c>
       <c r="M464">
-        <f t="shared" si="7"/>
+        <f>(L464-H464)</f>
         <v>0.27965018112641904</v>
       </c>
       <c r="N464">
@@ -27662,7 +27662,7 @@
         <v>0.33056070155652401</v>
       </c>
       <c r="M465">
-        <f t="shared" si="7"/>
+        <f>(L465-H465)</f>
         <v>0.277708701556524</v>
       </c>
       <c r="N465">
@@ -27711,7 +27711,7 @@
         <v>0.32115597528947498</v>
       </c>
       <c r="M466">
-        <f t="shared" si="7"/>
+        <f>(L466-H466)</f>
         <v>0.27470497528947496</v>
       </c>
       <c r="N466">
@@ -27760,7 +27760,7 @@
         <v>0.31937023671037901</v>
       </c>
       <c r="M467">
-        <f t="shared" si="7"/>
+        <f>(L467-H467)</f>
         <v>0.27316723671037901</v>
       </c>
       <c r="N467">
@@ -27809,7 +27809,7 @@
         <v>0.32831787604427498</v>
       </c>
       <c r="M468">
-        <f t="shared" si="7"/>
+        <f>(L468-H468)</f>
         <v>0.269968876044275</v>
       </c>
       <c r="N468">
@@ -27858,7 +27858,7 @@
         <v>0.37639501432134398</v>
       </c>
       <c r="M469">
-        <f t="shared" si="7"/>
+        <f>(L469-H469)</f>
         <v>0.26878401432134397</v>
       </c>
       <c r="N469">
@@ -27907,7 +27907,7 @@
         <v>0.31387772907947498</v>
       </c>
       <c r="M470">
-        <f t="shared" si="7"/>
+        <f>(L470-H470)</f>
         <v>0.26460072907947496</v>
       </c>
       <c r="N470">
@@ -27956,7 +27956,7 @@
         <v>0.30683438413005099</v>
       </c>
       <c r="M471">
-        <f t="shared" si="7"/>
+        <f>(L471-H471)</f>
         <v>0.25485438413005101</v>
       </c>
       <c r="N471">
@@ -28005,7 +28005,7 @@
         <v>0.30522088769268402</v>
       </c>
       <c r="M472">
-        <f t="shared" si="7"/>
+        <f>(L472-H472)</f>
         <v>0.25035388769268402</v>
       </c>
       <c r="N472">
@@ -28054,7 +28054,7 @@
         <v>0.29794090429201597</v>
       </c>
       <c r="M473">
-        <f t="shared" si="7"/>
+        <f>(L473-H473)</f>
         <v>0.24734590429201597</v>
       </c>
       <c r="N473">
@@ -28103,7 +28103,7 @@
         <v>0.29844413045790402</v>
       </c>
       <c r="M474">
-        <f t="shared" si="7"/>
+        <f>(L474-H474)</f>
         <v>0.24692013045790401</v>
       </c>
       <c r="N474">
@@ -28152,7 +28152,7 @@
         <v>0.30427809094101099</v>
       </c>
       <c r="M475">
-        <f t="shared" si="7"/>
+        <f>(L475-H475)</f>
         <v>0.246120090941011</v>
       </c>
       <c r="N475">
@@ -28201,7 +28201,7 @@
         <v>0.29868195741415599</v>
       </c>
       <c r="M476">
-        <f t="shared" si="7"/>
+        <f>(L476-H476)</f>
         <v>0.24579095741415599</v>
       </c>
       <c r="N476">
@@ -28250,7 +28250,7 @@
         <v>0.31623144907959999</v>
       </c>
       <c r="M477">
-        <f t="shared" si="7"/>
+        <f>(L477-H477)</f>
         <v>0.24497844907959998</v>
       </c>
       <c r="N477">
@@ -28299,7 +28299,7 @@
         <v>0.29273187321751598</v>
       </c>
       <c r="M478">
-        <f t="shared" si="7"/>
+        <f>(L478-H478)</f>
         <v>0.243262873217516</v>
       </c>
       <c r="N478">
@@ -28348,7 +28348,7 @@
         <v>0.29426748954270399</v>
       </c>
       <c r="M479">
-        <f t="shared" si="7"/>
+        <f>(L479-H479)</f>
         <v>0.242800489542704</v>
       </c>
       <c r="N479">
@@ -28397,7 +28397,7 @@
         <v>0.297591767288716</v>
       </c>
       <c r="M480">
-        <f t="shared" si="7"/>
+        <f>(L480-H480)</f>
         <v>0.24204276728871599</v>
       </c>
       <c r="N480">
@@ -28446,7 +28446,7 @@
         <v>0.29888490734145101</v>
       </c>
       <c r="M481">
-        <f t="shared" si="7"/>
+        <f>(L481-H481)</f>
         <v>0.24179090734145101</v>
       </c>
       <c r="N481">
@@ -28495,7 +28495,7 @@
         <v>0.285628437224275</v>
       </c>
       <c r="M482">
-        <f t="shared" si="7"/>
+        <f>(L482-H482)</f>
         <v>0.24116043722427499</v>
       </c>
       <c r="N482">
@@ -28544,7 +28544,7 @@
         <v>0.34094440726917102</v>
       </c>
       <c r="M483">
-        <f t="shared" si="7"/>
+        <f>(L483-H483)</f>
         <v>0.24057640726917101</v>
       </c>
       <c r="N483">
@@ -28593,7 +28593,7 @@
         <v>0.279717300944059</v>
       </c>
       <c r="M484">
-        <f t="shared" si="7"/>
+        <f>(L484-H484)</f>
         <v>0.23844130094405899</v>
       </c>
       <c r="N484">
@@ -28642,7 +28642,7 @@
         <v>0.31988920170823598</v>
       </c>
       <c r="M485">
-        <f t="shared" si="7"/>
+        <f>(L485-H485)</f>
         <v>0.23704420170823598</v>
       </c>
       <c r="N485">
@@ -28691,7 +28691,7 @@
         <v>0.28596150237828399</v>
       </c>
       <c r="M486">
-        <f t="shared" si="7"/>
+        <f>(L486-H486)</f>
         <v>0.236759502378284</v>
       </c>
       <c r="N486">
@@ -28740,7 +28740,7 @@
         <v>0.28316901933511601</v>
       </c>
       <c r="M487">
-        <f t="shared" si="7"/>
+        <f>(L487-H487)</f>
         <v>0.22483701933511602</v>
       </c>
       <c r="N487">
@@ -28789,7 +28789,7 @@
         <v>0.28291237300038402</v>
       </c>
       <c r="M488">
-        <f t="shared" si="7"/>
+        <f>(L488-H488)</f>
         <v>0.21521637300038401</v>
       </c>
       <c r="N488">
@@ -28838,7 +28838,7 @@
         <v>0.25841990621460398</v>
       </c>
       <c r="M489">
-        <f t="shared" si="7"/>
+        <f>(L489-H489)</f>
         <v>0.21470790621460398</v>
       </c>
       <c r="N489">
@@ -28887,7 +28887,7 @@
         <v>0.27480757487761598</v>
       </c>
       <c r="M490">
-        <f t="shared" si="7"/>
+        <f>(L490-H490)</f>
         <v>0.21226057487761596</v>
       </c>
       <c r="N490">
@@ -28936,7 +28936,7 @@
         <v>0.26207756420317901</v>
       </c>
       <c r="M491">
-        <f t="shared" si="7"/>
+        <f>(L491-H491)</f>
         <v>0.212192564203179</v>
       </c>
       <c r="N491">
@@ -28985,7 +28985,7 @@
         <v>0.27451629121945598</v>
       </c>
       <c r="M492">
-        <f t="shared" si="7"/>
+        <f>(L492-H492)</f>
         <v>0.21155229121945596</v>
       </c>
       <c r="N492">
@@ -29034,7 +29034,7 @@
         <v>0.25208929542553898</v>
       </c>
       <c r="M493">
-        <f t="shared" si="7"/>
+        <f>(L493-H493)</f>
         <v>0.21099429542553899</v>
       </c>
       <c r="N493">
@@ -29083,7 +29083,7 @@
         <v>0.24935162310001899</v>
       </c>
       <c r="M494">
-        <f t="shared" si="7"/>
+        <f>(L494-H494)</f>
         <v>0.20514362310001899</v>
       </c>
       <c r="N494">
@@ -29132,7 +29132,7 @@
         <v>0.25612720169118403</v>
       </c>
       <c r="M495">
-        <f t="shared" si="7"/>
+        <f>(L495-H495)</f>
         <v>0.20475820169118403</v>
       </c>
       <c r="N495">
@@ -29181,7 +29181,7 @@
         <v>0.245529074592859</v>
       </c>
       <c r="M496">
-        <f t="shared" si="7"/>
+        <f>(L496-H496)</f>
         <v>0.20381207459285899</v>
       </c>
       <c r="N496">
@@ -29230,7 +29230,7 @@
         <v>0.255244271859904</v>
       </c>
       <c r="M497">
-        <f t="shared" si="7"/>
+        <f>(L497-H497)</f>
         <v>0.202144271859904</v>
       </c>
       <c r="N497">
@@ -29279,7 +29279,7 @@
         <v>0.25065566123149902</v>
       </c>
       <c r="M498">
-        <f t="shared" si="7"/>
+        <f>(L498-H498)</f>
         <v>0.20078866123149902</v>
       </c>
       <c r="N498">
@@ -29328,7 +29328,7 @@
         <v>0.26050296686001101</v>
       </c>
       <c r="M499">
-        <f t="shared" si="7"/>
+        <f>(L499-H499)</f>
         <v>0.19812696686001102</v>
       </c>
       <c r="N499">
@@ -29377,7 +29377,7 @@
         <v>0.25364772683710002</v>
       </c>
       <c r="M500">
-        <f t="shared" si="7"/>
+        <f>(L500-H500)</f>
         <v>0.19650072683710001</v>
       </c>
       <c r="N500">
@@ -29426,7 +29426,7 @@
         <v>0.25601356492116401</v>
       </c>
       <c r="M501">
-        <f t="shared" si="7"/>
+        <f>(L501-H501)</f>
         <v>0.19351556492116401</v>
       </c>
       <c r="N501">
@@ -29475,7 +29475,7 @@
         <v>0.238914296812336</v>
       </c>
       <c r="M502">
-        <f t="shared" si="7"/>
+        <f>(L502-H502)</f>
         <v>0.193394296812336</v>
       </c>
       <c r="N502">
@@ -29524,7 +29524,7 @@
         <v>0.25130944580766401</v>
       </c>
       <c r="M503">
-        <f t="shared" si="7"/>
+        <f>(L503-H503)</f>
         <v>0.19334144580766402</v>
       </c>
       <c r="N503">
@@ -29573,7 +29573,7 @@
         <v>0.23275077533767599</v>
       </c>
       <c r="M504">
-        <f t="shared" si="7"/>
+        <f>(L504-H504)</f>
         <v>0.19300277533767599</v>
       </c>
       <c r="N504">
@@ -29622,7 +29622,7 @@
         <v>0.24770660010227499</v>
       </c>
       <c r="M505">
-        <f t="shared" si="7"/>
+        <f>(L505-H505)</f>
         <v>0.19275360010227499</v>
       </c>
       <c r="N505">
@@ -29671,7 +29671,7 @@
         <v>0.26376167891305902</v>
       </c>
       <c r="M506">
-        <f t="shared" si="7"/>
+        <f>(L506-H506)</f>
         <v>0.19252467891305902</v>
       </c>
       <c r="N506">
@@ -29720,7 +29720,7 @@
         <v>0.280132975105579</v>
       </c>
       <c r="M507">
-        <f t="shared" si="7"/>
+        <f>(L507-H507)</f>
         <v>0.19227797510557898</v>
       </c>
       <c r="N507">
@@ -29769,7 +29769,7 @@
         <v>0.24616126839198399</v>
       </c>
       <c r="M508">
-        <f t="shared" si="7"/>
+        <f>(L508-H508)</f>
         <v>0.18835426839198399</v>
       </c>
       <c r="N508">
@@ -29818,7 +29818,7 @@
         <v>0.250705431967579</v>
       </c>
       <c r="M509">
-        <f t="shared" si="7"/>
+        <f>(L509-H509)</f>
         <v>0.18383643196757898</v>
       </c>
       <c r="N509">
@@ -29867,7 +29867,7 @@
         <v>0.22850305849908401</v>
       </c>
       <c r="M510">
-        <f t="shared" si="7"/>
+        <f>(L510-H510)</f>
         <v>0.17890905849908401</v>
       </c>
       <c r="N510">
@@ -29916,7 +29916,7 @@
         <v>0.25277068577709999</v>
       </c>
       <c r="M511">
-        <f t="shared" si="7"/>
+        <f>(L511-H511)</f>
         <v>0.17716068577709998</v>
       </c>
       <c r="N511">
@@ -29965,7 +29965,7 @@
         <v>0.24781150719769601</v>
       </c>
       <c r="M512">
-        <f t="shared" si="7"/>
+        <f>(L512-H512)</f>
         <v>0.177108507197696</v>
       </c>
       <c r="N512">
@@ -30014,7 +30014,7 @@
         <v>0.220493403855436</v>
       </c>
       <c r="M513">
-        <f t="shared" si="7"/>
+        <f>(L513-H513)</f>
         <v>0.17574040385543599</v>
       </c>
       <c r="N513">
@@ -30063,7 +30063,7 @@
         <v>0.22979958643998399</v>
       </c>
       <c r="M514">
-        <f t="shared" si="7"/>
+        <f>(L514-H514)</f>
         <v>0.175298586439984</v>
       </c>
       <c r="N514">
@@ -30112,7 +30112,7 @@
         <v>0.21855716980959999</v>
       </c>
       <c r="M515">
-        <f t="shared" ref="M515:M578" si="8">(L515-H515)</f>
+        <f>(L515-H515)</f>
         <v>0.17363716980959998</v>
       </c>
       <c r="N515">
@@ -30161,7 +30161,7 @@
         <v>0.213006059411251</v>
       </c>
       <c r="M516">
-        <f t="shared" si="8"/>
+        <f>(L516-H516)</f>
         <v>0.16960605941125101</v>
       </c>
       <c r="N516">
@@ -30210,7 +30210,7 @@
         <v>0.21293962025687499</v>
       </c>
       <c r="M517">
-        <f t="shared" si="8"/>
+        <f>(L517-H517)</f>
         <v>0.16852262025687498</v>
       </c>
       <c r="N517">
@@ -30259,7 +30259,7 @@
         <v>0.22752539961156401</v>
       </c>
       <c r="M518">
-        <f t="shared" si="8"/>
+        <f>(L518-H518)</f>
         <v>0.16561039961156401</v>
       </c>
       <c r="N518">
@@ -30308,7 +30308,7 @@
         <v>0.21055255943575599</v>
       </c>
       <c r="M519">
-        <f t="shared" si="8"/>
+        <f>(L519-H519)</f>
         <v>0.16269555943575598</v>
       </c>
       <c r="N519">
@@ -30357,7 +30357,7 @@
         <v>0.21200005044947501</v>
       </c>
       <c r="M520">
-        <f t="shared" si="8"/>
+        <f>(L520-H520)</f>
         <v>0.16136705044947502</v>
       </c>
       <c r="N520">
@@ -30406,7 +30406,7 @@
         <v>0.232992997070539</v>
       </c>
       <c r="M521">
-        <f t="shared" si="8"/>
+        <f>(L521-H521)</f>
         <v>0.159224997070539</v>
       </c>
       <c r="N521">
@@ -30455,7 +30455,7 @@
         <v>0.23001032999833601</v>
       </c>
       <c r="M522">
-        <f t="shared" si="8"/>
+        <f>(L522-H522)</f>
         <v>0.15869532999833602</v>
       </c>
       <c r="N522">
@@ -30504,7 +30504,7 @@
         <v>0.212458396140976</v>
       </c>
       <c r="M523">
-        <f t="shared" si="8"/>
+        <f>(L523-H523)</f>
         <v>0.15659639614097601</v>
       </c>
       <c r="N523">
@@ -30553,7 +30553,7 @@
         <v>0.20499242889421901</v>
       </c>
       <c r="M524">
-        <f t="shared" si="8"/>
+        <f>(L524-H524)</f>
         <v>0.15479342889421902</v>
       </c>
       <c r="N524">
@@ -30602,7 +30602,7 @@
         <v>0.209188926357571</v>
       </c>
       <c r="M525">
-        <f t="shared" si="8"/>
+        <f>(L525-H525)</f>
         <v>0.15183592635757098</v>
       </c>
       <c r="N525">
@@ -30651,7 +30651,7 @@
         <v>0.205908659267659</v>
       </c>
       <c r="M526">
-        <f t="shared" si="8"/>
+        <f>(L526-H526)</f>
         <v>0.151345659267659</v>
       </c>
       <c r="N526">
@@ -30700,7 +30700,7 @@
         <v>0.20440121801989899</v>
       </c>
       <c r="M527">
-        <f t="shared" si="8"/>
+        <f>(L527-H527)</f>
         <v>0.151228218019899</v>
       </c>
       <c r="N527">
@@ -30749,7 +30749,7 @@
         <v>0.21083816970324401</v>
       </c>
       <c r="M528">
-        <f t="shared" si="8"/>
+        <f>(L528-H528)</f>
         <v>0.15036316970324401</v>
       </c>
       <c r="N528">
@@ -30798,7 +30798,7 @@
         <v>0.21852331224660401</v>
       </c>
       <c r="M529">
-        <f t="shared" si="8"/>
+        <f>(L529-H529)</f>
         <v>0.14933231224660401</v>
       </c>
       <c r="N529">
@@ -30847,7 +30847,7 @@
         <v>0.20029891151005899</v>
       </c>
       <c r="M530">
-        <f t="shared" si="8"/>
+        <f>(L530-H530)</f>
         <v>0.14762091151005899</v>
       </c>
       <c r="N530">
@@ -30896,7 +30896,7 @@
         <v>0.18417587240725899</v>
       </c>
       <c r="M531">
-        <f t="shared" si="8"/>
+        <f>(L531-H531)</f>
         <v>0.14092987240725899</v>
       </c>
       <c r="N531">
@@ -30945,7 +30945,7 @@
         <v>0.200103381534316</v>
       </c>
       <c r="M532">
-        <f t="shared" si="8"/>
+        <f>(L532-H532)</f>
         <v>0.13968838153431601</v>
       </c>
       <c r="N532">
@@ -30994,7 +30994,7 @@
         <v>0.189230108399779</v>
       </c>
       <c r="M533">
-        <f t="shared" si="8"/>
+        <f>(L533-H533)</f>
         <v>0.13604410839977898</v>
       </c>
       <c r="N533">
@@ -31043,7 +31043,7 @@
         <v>0.192104978676784</v>
       </c>
       <c r="M534">
-        <f t="shared" si="8"/>
+        <f>(L534-H534)</f>
         <v>0.13558497867678398</v>
       </c>
       <c r="N534">
@@ -31092,7 +31092,7 @@
         <v>0.18701988675039999</v>
       </c>
       <c r="M535">
-        <f t="shared" si="8"/>
+        <f>(L535-H535)</f>
         <v>0.12495688675039998</v>
       </c>
       <c r="N535">
@@ -31141,7 +31141,7 @@
         <v>0.191236389060844</v>
       </c>
       <c r="M536">
-        <f t="shared" si="8"/>
+        <f>(L536-H536)</f>
         <v>0.122535389060844</v>
       </c>
       <c r="N536">
@@ -31190,7 +31190,7 @@
         <v>0.183449334528556</v>
       </c>
       <c r="M537">
-        <f t="shared" si="8"/>
+        <f>(L537-H537)</f>
         <v>0.115791334528556</v>
       </c>
       <c r="N537">
@@ -31239,7 +31239,7 @@
         <v>0.174569366319244</v>
       </c>
       <c r="M538">
-        <f t="shared" si="8"/>
+        <f>(L538-H538)</f>
         <v>0.11539836631924399</v>
       </c>
       <c r="N538">
@@ -31288,7 +31288,7 @@
         <v>0.17680829040990401</v>
       </c>
       <c r="M539">
-        <f t="shared" si="8"/>
+        <f>(L539-H539)</f>
         <v>0.114570290409904</v>
       </c>
       <c r="N539">
@@ -31337,7 +31337,7 @@
         <v>0.16296712234788399</v>
       </c>
       <c r="M540">
-        <f t="shared" si="8"/>
+        <f>(L540-H540)</f>
         <v>0.10662412234788399</v>
       </c>
       <c r="N540">
@@ -31386,7 +31386,7 @@
         <v>0.16306100643777099</v>
       </c>
       <c r="M541">
-        <f t="shared" si="8"/>
+        <f>(L541-H541)</f>
         <v>0.10029500643777099</v>
       </c>
       <c r="N541">
@@ -31435,7 +31435,7 @@
         <v>0.142497998835904</v>
       </c>
       <c r="M542">
-        <f t="shared" si="8"/>
+        <f>(L542-H542)</f>
         <v>9.6102998835904008E-2</v>
       </c>
       <c r="N542">
@@ -31484,7 +31484,7 @@
         <v>0.137357309658379</v>
       </c>
       <c r="M543">
-        <f t="shared" si="8"/>
+        <f>(L543-H543)</f>
         <v>8.8928309658379001E-2</v>
       </c>
       <c r="N543">
@@ -31533,7 +31533,7 @@
         <v>0.15273737339461901</v>
       </c>
       <c r="M544">
-        <f t="shared" si="8"/>
+        <f>(L544-H544)</f>
         <v>8.401337339461902E-2</v>
       </c>
       <c r="N544">
@@ -31582,7 +31582,7 @@
         <v>0.14741745412297899</v>
       </c>
       <c r="M545">
-        <f t="shared" si="8"/>
+        <f>(L545-H545)</f>
         <v>8.1990454122978992E-2</v>
       </c>
       <c r="N545">
@@ -31631,7 +31631,7 @@
         <v>0.12935378564689601</v>
       </c>
       <c r="M546">
-        <f t="shared" si="8"/>
+        <f>(L546-H546)</f>
         <v>7.7508785646896006E-2</v>
       </c>
       <c r="N546">
@@ -31680,7 +31680,7 @@
         <v>0.13773874727257901</v>
       </c>
       <c r="M547">
-        <f t="shared" si="8"/>
+        <f>(L547-H547)</f>
         <v>7.6683747272579011E-2</v>
       </c>
       <c r="N547">
@@ -31729,7 +31729,7 @@
         <v>0.14622217427447501</v>
       </c>
       <c r="M548">
-        <f t="shared" si="8"/>
+        <f>(L548-H548)</f>
         <v>7.4975174274475004E-2</v>
       </c>
       <c r="N548">
@@ -31778,7 +31778,7 @@
         <v>0.13152690199092401</v>
       </c>
       <c r="M549">
-        <f t="shared" si="8"/>
+        <f>(L549-H549)</f>
         <v>7.3542901990924003E-2</v>
       </c>
       <c r="N549">
@@ -31827,7 +31827,7 @@
         <v>0.12128757691806399</v>
       </c>
       <c r="M550">
-        <f t="shared" si="8"/>
+        <f>(L550-H550)</f>
         <v>7.0572576918063984E-2</v>
       </c>
       <c r="N550">
@@ -31876,7 +31876,7 @@
         <v>0.159473876955811</v>
       </c>
       <c r="M551">
-        <f t="shared" si="8"/>
+        <f>(L551-H551)</f>
         <v>6.9724876955811005E-2</v>
       </c>
       <c r="N551">
@@ -31925,7 +31925,7 @@
         <v>0.13520724893710001</v>
       </c>
       <c r="M552">
-        <f t="shared" si="8"/>
+        <f>(L552-H552)</f>
         <v>6.8371248937100004E-2</v>
       </c>
       <c r="N552">
@@ -31974,7 +31974,7 @@
         <v>0.121851585353275</v>
       </c>
       <c r="M553">
-        <f t="shared" si="8"/>
+        <f>(L553-H553)</f>
         <v>6.5624585353275006E-2</v>
       </c>
       <c r="N553">
@@ -32023,7 +32023,7 @@
         <v>0.122612722062016</v>
       </c>
       <c r="M554">
-        <f t="shared" si="8"/>
+        <f>(L554-H554)</f>
         <v>6.5602722062016006E-2</v>
       </c>
       <c r="N554">
@@ -32072,7 +32072,7 @@
         <v>0.106769991205291</v>
       </c>
       <c r="M555">
-        <f t="shared" si="8"/>
+        <f>(L555-H555)</f>
         <v>6.4528991205291E-2</v>
       </c>
       <c r="N555">
@@ -32121,7 +32121,7 @@
         <v>0.124480495784299</v>
       </c>
       <c r="M556">
-        <f t="shared" si="8"/>
+        <f>(L556-H556)</f>
         <v>6.3806495784299005E-2</v>
       </c>
       <c r="N556">
@@ -32170,7 +32170,7 @@
         <v>0.10696513694436401</v>
       </c>
       <c r="M557">
-        <f t="shared" si="8"/>
+        <f>(L557-H557)</f>
         <v>5.7246136944364007E-2</v>
       </c>
       <c r="N557">
@@ -32219,7 +32219,7 @@
         <v>0.117194624932699</v>
       </c>
       <c r="M558">
-        <f t="shared" si="8"/>
+        <f>(L558-H558)</f>
         <v>5.5938624932699001E-2</v>
       </c>
       <c r="N558">
@@ -32268,7 +32268,7 @@
         <v>0.116952164498275</v>
       </c>
       <c r="M559">
-        <f t="shared" si="8"/>
+        <f>(L559-H559)</f>
         <v>5.0800164498274999E-2</v>
       </c>
       <c r="N559">
@@ -32317,7 +32317,7 @@
         <v>9.59723329279389E-2</v>
       </c>
       <c r="M560">
-        <f t="shared" si="8"/>
+        <f>(L560-H560)</f>
         <v>4.6979332927938898E-2</v>
       </c>
       <c r="N560">
@@ -32366,7 +32366,7 @@
         <v>0.100985559751171</v>
       </c>
       <c r="M561">
-        <f t="shared" si="8"/>
+        <f>(L561-H561)</f>
         <v>4.6597559751171004E-2</v>
       </c>
       <c r="N561">
@@ -32415,7 +32415,7 @@
         <v>0.10292466170785899</v>
       </c>
       <c r="M562">
-        <f t="shared" si="8"/>
+        <f>(L562-H562)</f>
         <v>4.6352661707858997E-2</v>
       </c>
       <c r="N562">
@@ -32464,7 +32464,7 @@
         <v>8.1532787638410903E-2</v>
       </c>
       <c r="M563">
-        <f t="shared" si="8"/>
+        <f>(L563-H563)</f>
         <v>3.9404787638410904E-2</v>
       </c>
       <c r="N563">
@@ -32513,7 +32513,7 @@
         <v>0.108761711959291</v>
       </c>
       <c r="M564">
-        <f t="shared" si="8"/>
+        <f>(L564-H564)</f>
         <v>3.9072711959291004E-2</v>
       </c>
       <c r="N564">
@@ -32562,7 +32562,7 @@
         <v>8.4521901927615994E-2</v>
       </c>
       <c r="M565">
-        <f t="shared" si="8"/>
+        <f>(L565-H565)</f>
         <v>3.6569901927615993E-2</v>
       </c>
       <c r="N565">
@@ -32611,7 +32611,7 @@
         <v>8.3987096507055894E-2</v>
       </c>
       <c r="M566">
-        <f t="shared" si="8"/>
+        <f>(L566-H566)</f>
         <v>3.5269096507055897E-2</v>
       </c>
       <c r="N566">
@@ -32660,7 +32660,7 @@
         <v>9.5533548324544096E-2</v>
       </c>
       <c r="M567">
-        <f t="shared" si="8"/>
+        <f>(L567-H567)</f>
         <v>3.4697548324544095E-2</v>
       </c>
       <c r="N567">
@@ -32709,7 +32709,7 @@
         <v>7.0383981587178998E-2</v>
       </c>
       <c r="M568">
-        <f t="shared" si="8"/>
+        <f>(L568-H568)</f>
         <v>2.7905981587178996E-2</v>
       </c>
       <c r="N568">
@@ -32758,7 +32758,7 @@
         <v>7.1666567878335904E-2</v>
       </c>
       <c r="M569">
-        <f t="shared" si="8"/>
+        <f>(L569-H569)</f>
         <v>2.7660567878335901E-2</v>
       </c>
       <c r="N569">
@@ -32807,7 +32807,7 @@
         <v>8.6899268724090997E-2</v>
       </c>
       <c r="M570">
-        <f t="shared" si="8"/>
+        <f>(L570-H570)</f>
         <v>2.6754268724091E-2</v>
       </c>
       <c r="N570">
@@ -32856,7 +32856,7 @@
         <v>7.0020574684684006E-2</v>
       </c>
       <c r="M571">
-        <f t="shared" si="8"/>
+        <f>(L571-H571)</f>
         <v>2.5324574684684006E-2</v>
       </c>
       <c r="N571">
@@ -32905,7 +32905,7 @@
         <v>8.2712299645219006E-2</v>
       </c>
       <c r="M572">
-        <f t="shared" si="8"/>
+        <f>(L572-H572)</f>
         <v>2.5038299645219003E-2</v>
       </c>
       <c r="N572">
@@ -32954,7 +32954,7 @@
         <v>7.3036250718330906E-2</v>
       </c>
       <c r="M573">
-        <f t="shared" si="8"/>
+        <f>(L573-H573)</f>
         <v>2.4504250718330907E-2</v>
       </c>
       <c r="N573">
@@ -33003,7 +33003,7 @@
         <v>6.99100867064439E-2</v>
       </c>
       <c r="M574">
-        <f t="shared" si="8"/>
+        <f>(L574-H574)</f>
         <v>1.8702086706443903E-2</v>
       </c>
       <c r="N574">
@@ -33052,7 +33052,7 @@
         <v>8.9206811665600197E-2</v>
       </c>
       <c r="M575">
-        <f t="shared" si="8"/>
+        <f>(L575-H575)</f>
         <v>1.8339811665600197E-2</v>
       </c>
       <c r="N575">
@@ -33101,7 +33101,7 @@
         <v>7.4887338971884002E-2</v>
       </c>
       <c r="M576">
-        <f t="shared" si="8"/>
+        <f>(L576-H576)</f>
         <v>1.0663338971883998E-2</v>
       </c>
       <c r="N576">
@@ -33150,7 +33150,7 @@
         <v>6.9575284715851102E-2</v>
       </c>
       <c r="M577">
-        <f t="shared" si="8"/>
+        <f>(L577-H577)</f>
         <v>4.8352847158510959E-3</v>
       </c>
       <c r="N577">
@@ -33199,7 +33199,7 @@
         <v>7.4694332569323896E-2</v>
       </c>
       <c r="M578">
-        <f t="shared" si="8"/>
+        <f>(L578-H578)</f>
         <v>4.6403325693238906E-3</v>
       </c>
       <c r="N578">
@@ -33215,44 +33215,44 @@
         <v>10</v>
       </c>
       <c r="B579">
-        <v>0.97799599999999998</v>
+        <v>0.993143</v>
       </c>
       <c r="C579">
-        <v>9.2520000000000005E-2</v>
+        <v>8.7316000000000005E-2</v>
       </c>
       <c r="D579">
-        <v>7.8458E-2</v>
+        <v>7.0817000000000005E-2</v>
       </c>
       <c r="E579">
-        <v>4.8892999999999999E-2</v>
+        <v>4.4637999999999997E-2</v>
       </c>
       <c r="F579">
-        <v>0.39915</v>
+        <v>0.34745599999999999</v>
       </c>
       <c r="G579">
-        <v>0.18517700000000001</v>
+        <v>0.16544400000000001</v>
       </c>
       <c r="H579">
-        <v>7.4039999999999995E-2</v>
+        <v>6.8476999999999996E-2</v>
       </c>
       <c r="I579">
-        <v>0.41124395151215998</v>
+        <v>0.58977376939116</v>
       </c>
       <c r="J579">
-        <v>0.48014251170541999</v>
+        <v>0.57568341802552003</v>
       </c>
       <c r="K579">
-        <v>0.39281810304107401</v>
+        <v>0.49237200847896601</v>
       </c>
       <c r="L579">
-        <v>7.0118785886874799E-2</v>
+        <v>7.1049938205100194E-2</v>
       </c>
       <c r="M579">
-        <f t="shared" ref="M579:M581" si="9">(L579-H579)</f>
-        <v>-3.921214113125196E-3</v>
+        <f>(L579-H579)</f>
+        <v>2.5729382051001976E-3</v>
       </c>
       <c r="N579">
-        <v>9.8061999999999996E-2</v>
+        <v>2.8530000000000001E-3</v>
       </c>
       <c r="O579">
         <f>ABS((1.0276*(-0.01391)) - 0.0143)</f>
@@ -33297,7 +33297,7 @@
         <v>7.10219920983306E-2</v>
       </c>
       <c r="M580">
-        <f t="shared" si="9"/>
+        <f>(L580-H580)</f>
         <v>-2.7350079016694034E-3</v>
       </c>
       <c r="N580">
@@ -33313,44 +33313,44 @@
         <v>10</v>
       </c>
       <c r="B581">
-        <v>0.993143</v>
+        <v>0.97799599999999998</v>
       </c>
       <c r="C581">
-        <v>8.7316000000000005E-2</v>
+        <v>9.2520000000000005E-2</v>
       </c>
       <c r="D581">
-        <v>7.0817000000000005E-2</v>
+        <v>7.8458E-2</v>
       </c>
       <c r="E581">
-        <v>4.4637999999999997E-2</v>
+        <v>4.8892999999999999E-2</v>
       </c>
       <c r="F581">
-        <v>0.34745599999999999</v>
+        <v>0.39915</v>
       </c>
       <c r="G581">
-        <v>0.16544400000000001</v>
+        <v>0.18517700000000001</v>
       </c>
       <c r="H581">
-        <v>6.8476999999999996E-2</v>
+        <v>7.4039999999999995E-2</v>
       </c>
       <c r="I581">
-        <v>0.58977376939116</v>
+        <v>0.41124395151215998</v>
       </c>
       <c r="J581">
-        <v>0.57568341802552003</v>
+        <v>0.48014251170541999</v>
       </c>
       <c r="K581">
-        <v>0.49237200847896601</v>
+        <v>0.39281810304107401</v>
       </c>
       <c r="L581">
-        <v>7.1049938205100194E-2</v>
+        <v>7.0118785886874799E-2</v>
       </c>
       <c r="M581">
-        <f t="shared" si="9"/>
-        <v>2.5729382051001976E-3</v>
+        <f>(L581-H581)</f>
+        <v>-3.921214113125196E-3</v>
       </c>
       <c r="N581">
-        <v>2.8530000000000001E-3</v>
+        <v>9.8061999999999996E-2</v>
       </c>
       <c r="O581">
         <f>ABS((1.0276*(-0.01391)) - 0.0143)</f>
